--- a/TDP_ING_DGDC.xlsx
+++ b/TDP_ING_DGDC.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59506724-0523-4DF6-8BFF-D2C280AC2946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C06F637-E5DC-45AD-9F19-78371C308B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_11" sheetId="1" r:id="rId1"/>
+    <sheet name="C_14" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">C_11!$B$5:$I$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">C_14!$B$5:$I$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>

--- a/TDP_ING_DGDC.xlsx
+++ b/TDP_ING_DGDC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C06F637-E5DC-45AD-9F19-78371C308B7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F653235C-D706-4C48-B985-E3001CD8176B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Ultima actualización: mayo 2024</t>
   </si>
@@ -75,6 +75,12 @@
   </si>
   <si>
     <t xml:space="preserve">Fuente: Dirección General de Desarrollo Carretero (DGDC). </t>
+  </si>
+  <si>
+    <t>Automoviles2</t>
+  </si>
+  <si>
+    <t>Camiones3</t>
   </si>
 </sst>
 </file>
@@ -146,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -218,12 +224,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -249,17 +325,117 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Montserrat Medium"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -270,6 +446,28 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFA616D0-4524-42E3-8E73-34B41D1A2B7F}" name="Tabla1" displayName="Tabla1" ref="B5:H77" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="B5:H77" xr:uid="{FFA616D0-4524-42E3-8E73-34B41D1A2B7F}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2023" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{D83FB983-AFEC-4348-AC34-D0705AB203FA}" name="Periodo" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{54A7EE4F-04D5-45A9-87A6-FEECD094C998}" name="Automoviles" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{4F905800-AD6F-4756-AD11-61A1466E3843}" name="Autobuses" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{8986C2FD-064C-497A-8C6B-73EE3BF447F6}" name="Camiones" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{637A13A3-4F4B-4034-8719-AC01AE3259E9}" name="Automoviles2" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{40BE79E0-B249-4F5C-8572-EEF67A8ABCF2}" name="Autobices" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{A0BCA930-8E7D-4906-BC22-D7FF397B2BDE}" name="Camiones3" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -505,7 +703,12 @@
   <cols>
     <col min="1" max="1" width="5.59765625" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="8" width="10.69921875" customWidth="1"/>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="10.8984375" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" customWidth="1"/>
+    <col min="6" max="6" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="11.296875" customWidth="1"/>
     <col min="9" max="9" width="7.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -515,23 +718,23 @@
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B4" s="14" t="s">
-        <v>8</v>
-      </c>
+      <c r="B4" s="17"/>
       <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B5" s="14"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -541,35 +744,35 @@
         <v>4</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>4</v>
+      <c r="H5" s="21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="6">
+      <c r="B6" s="23">
         <v>45261</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="24">
         <v>1236552.7575366544</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="24">
         <v>55205.824393340481</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="24">
         <v>427869.65700916701</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="24">
         <v>4779.7767068656685</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="24">
         <v>475.73372654829694</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="25">
         <v>5396.6752817329534</v>
       </c>
       <c r="K6" s="4"/>
@@ -601,19 +804,19 @@
       <c r="B8" s="6">
         <v>45200</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="22">
         <v>1051935.6934365514</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="22">
         <v>49268.534904079628</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="22">
         <v>457027.51406724972</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="22">
         <v>3798.4232309325503</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="22">
         <v>424.67829688142024</v>
       </c>
       <c r="H8" s="11">
@@ -647,19 +850,19 @@
       <c r="B10" s="6">
         <v>45139</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="22">
         <v>1137447.4188830941</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="22">
         <v>53536.288238002882</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="22">
         <v>457105.29930989945</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="22">
         <v>4258.9875067963967</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="22">
         <v>463.73396307100188</v>
       </c>
       <c r="H10" s="11">
@@ -693,19 +896,19 @@
       <c r="B12" s="6">
         <v>45078</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="22">
         <v>1084997.842775401</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="22">
         <v>49129.158733076314</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="22">
         <v>467186.2368995978</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="22">
         <v>3790.5449371028221</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="22">
         <v>401.17721382665849</v>
       </c>
       <c r="H12" s="11">
@@ -739,19 +942,19 @@
       <c r="B14" s="6">
         <v>45017</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="22">
         <v>1251841.8242146911</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="22">
         <v>55737.883811974374</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="22">
         <v>451952.68913235731</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="22">
         <v>4494.9007064296211</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="22">
         <v>447.62401687755482</v>
       </c>
       <c r="H14" s="11">
@@ -785,19 +988,19 @@
       <c r="B16" s="6">
         <v>44958</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="22">
         <v>1111487.8610035197</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="22">
         <v>48667.075117150816</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="22">
         <v>457176.91158678796</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="22">
         <v>3384.0807050461572</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="22">
         <v>336.6377555025627</v>
       </c>
       <c r="H16" s="11">
@@ -805,52 +1008,52 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="5">
+      <c r="B17" s="7">
         <v>44927</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="12">
         <v>1148216.9829111774</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="12">
         <v>51242.315396589693</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="12">
         <v>407245.71773065301</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="12">
         <v>3911.282690757916</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="12">
         <v>383.38430415866725</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="13">
         <v>4840.1508852197358</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B18" s="6">
+    <row r="18" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="23">
         <v>44896</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="24">
         <v>1282286.3624803619</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="24">
         <v>56884.30784143343</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="24">
         <v>432259.36008302186</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="24">
         <v>4497.9888127111044</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="24">
         <v>435.70744421863009</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="25">
         <v>4861.6050600812614</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5">
         <v>44866</v>
       </c>
@@ -873,30 +1076,30 @@
         <v>4874.5211284555535</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" s="6">
         <v>44835</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="22">
         <v>1095710.3118845734</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="22">
         <v>50223.375566555238</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="22">
         <v>443891.85902973393</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="22">
         <v>3562.9684051920904</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="22">
         <v>372.2423656681342</v>
       </c>
       <c r="H20" s="11">
         <v>4895.46921792793</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5">
         <v>44805</v>
       </c>
@@ -919,30 +1122,30 @@
         <v>4638.169712028197</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B22" s="6">
         <v>44774</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="22">
         <v>1164790.896163272</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="22">
         <v>52009.576295872146</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="22">
         <v>442050.76941768365</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="22">
         <v>3941.6892069858054</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="22">
         <v>388.45329836668225</v>
       </c>
       <c r="H22" s="11">
         <v>4855.3665330754493</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B23" s="5">
         <v>44743</v>
       </c>
@@ -965,30 +1168,30 @@
         <v>4744.4381672001218</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="6">
         <v>44713</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="22">
         <v>1065897.405771852</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="22">
         <v>49657.16391538296</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="22">
         <v>444788.73976985971</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="22">
         <v>3408.6256872691079</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="22">
         <v>345.00044090728858</v>
       </c>
       <c r="H24" s="11">
         <v>4733.1920367478588</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" s="5">
         <v>44682</v>
       </c>
@@ -1011,30 +1214,30 @@
         <v>4896.7940436270937</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="6">
         <v>44652</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="22">
         <v>1230717.0319438428</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="22">
         <v>51461.854009739422</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="22">
         <v>435586.15598495427</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="22">
         <v>4070.9224336470975</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="22">
         <v>368.07017366713569</v>
       </c>
       <c r="H26" s="11">
         <v>4602.6022770205827</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" s="5">
         <v>44621</v>
       </c>
@@ -1057,76 +1260,76 @@
         <v>4905.3328111841438</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" s="6">
         <v>44593</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="22">
         <v>944692.0421862785</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="22">
         <v>41718.441758106383</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="22">
         <v>435409.77236684266</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="22">
         <v>3057.6307816070057</v>
       </c>
-      <c r="G28" s="10">
+      <c r="G28" s="22">
         <v>271.17599772468679</v>
       </c>
       <c r="H28" s="11">
         <v>4254.5580566555373</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="5">
+    <row r="29" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="7">
         <v>44562</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="12">
         <v>1038138.4107616678</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="12">
         <v>45299.007770143056</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="12">
         <v>401512.79824494442</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="12">
         <v>3390.2190567937041</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="12">
         <v>315.44712339076739</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="13">
         <v>4249.3718802588073</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="6">
+    <row r="30" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="23">
         <v>44531</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="24">
         <v>1256184.4388228427</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="24">
         <v>52366.331085237762</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="24">
         <v>410550.12515018048</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="24">
         <v>4238.9904423727412</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="24">
         <v>374.93197893803466</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="25">
         <v>4297.8418293067252</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" s="5">
         <v>44501</v>
       </c>
@@ -1149,30 +1352,30 @@
         <v>4231.7763020956418</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" s="6">
         <v>44470</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="22">
         <v>1036454.8882400317</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="22">
         <v>41706.611499041115</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="22">
         <v>416263.54922020715</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="22">
         <v>3234.86890124708</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="22">
         <v>284.40468988668175</v>
       </c>
       <c r="H32" s="11">
         <v>4306.0240317937314</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="5">
         <v>44440</v>
       </c>
@@ -1195,30 +1398,30 @@
         <v>3975.5891019230307</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B34" s="6">
         <v>44409</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="22">
         <v>997310.15726052551</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="22">
         <v>41114.182027346505</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="22">
         <v>401526.23768936115</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="22">
         <v>3120.4861195560834</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="22">
         <v>278.03604749092699</v>
       </c>
       <c r="H34" s="11">
         <v>4143.8920707024272</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B35" s="5">
         <v>44378</v>
       </c>
@@ -1241,30 +1444,30 @@
         <v>4185.9426986052431</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" s="6">
         <v>44348</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="22">
         <v>1013217.1049295017</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="22">
         <v>40805.491935468934</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="22">
         <v>415091.49118260719</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="22">
         <v>3044.7864051612028</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="22">
         <v>269.51964572925459</v>
       </c>
       <c r="H36" s="11">
         <v>4185.9287305877633</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="5">
         <v>44317</v>
       </c>
@@ -1287,30 +1490,30 @@
         <v>4142.9857768872307</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="6">
         <v>44287</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="22">
         <v>1033880.2399842916</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="22">
         <v>37767.397400746653</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="22">
         <v>392761.6665084713</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="22">
         <v>3163.6612032541784</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="22">
         <v>246.82165225203931</v>
       </c>
       <c r="H38" s="11">
         <v>3944.5126978995322</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="5">
         <v>44256</v>
       </c>
@@ -1333,76 +1536,76 @@
         <v>4218.8868255480702</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" s="6">
         <v>44228</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="22">
         <v>872889.51048037899</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="22">
         <v>31458.710517757321</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="22">
         <v>391840.69256860856</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="22">
         <v>2399.751693345097</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="22">
         <v>185.13795126171618</v>
       </c>
       <c r="H40" s="11">
         <v>3677.6291684124362</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B41" s="5">
+    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B41" s="7">
         <v>44197</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="12">
         <v>905774.87997676479</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="12">
         <v>39306.393036811329</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="12">
         <v>381229.20439738024</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="12">
         <v>2679.3259642225776</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="12">
         <v>224.54814513871693</v>
       </c>
-      <c r="H41" s="9">
+      <c r="H41" s="13">
         <v>3636.1675292773343</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B42" s="6">
+    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B42" s="23">
         <v>44166</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="24">
         <v>1038937.4965936036</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="24">
         <v>40689.557294487357</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="24">
         <v>382620.68954876851</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="24">
         <v>3239.545016225522</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="24">
         <v>263.38341395824057</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="25">
         <v>3792.9005364509817</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" s="5">
         <v>44136</v>
       </c>
@@ -1425,30 +1628,30 @@
         <v>3665.3589399155608</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" s="6">
         <v>44105</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="22">
         <v>866494.10116764531</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="22">
         <v>36103.578326969364</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="22">
         <v>386418.52321766515</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="22">
         <v>2573.1079135660179</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="22">
         <v>215.52211084008516</v>
       </c>
       <c r="H44" s="11">
         <v>3684.2586749874527</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" s="5">
         <v>44075</v>
       </c>
@@ -1471,30 +1674,30 @@
         <v>3324.7279267489744</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B46" s="6">
         <v>44044</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="22">
         <v>827968.22456198384</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="22">
         <v>31925.793452031299</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="22">
         <v>355821.67314965517</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="22">
         <v>2462.7073448772371</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="22">
         <v>190.76948815296777</v>
       </c>
       <c r="H46" s="11">
         <v>3386.7491181883634</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B47" s="5">
         <v>44013</v>
       </c>
@@ -1517,30 +1720,30 @@
         <v>4404.7609962950182</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" s="6">
         <v>43983</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="22">
         <v>662044.26517451683</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="22">
         <v>26225.653241793974</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="22">
         <v>337765.93832476879</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="22">
         <v>1853.8125186675022</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="22">
         <v>147.34487878312396</v>
       </c>
       <c r="H48" s="11">
         <v>3149.6218494138839</v>
       </c>
     </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" s="5">
         <v>43952</v>
       </c>
@@ -1563,30 +1766,30 @@
         <v>2777.1426343665462</v>
       </c>
     </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B50" s="6">
         <v>43922</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="22">
         <v>511251.33788468054</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="22">
         <v>23504.793615390903</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="22">
         <v>299058.8295099588</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="22">
         <v>1368.4948273975385</v>
       </c>
-      <c r="G50" s="10">
+      <c r="G50" s="22">
         <v>134.58462719338473</v>
       </c>
       <c r="H50" s="11">
         <v>2771.7821885818157</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" s="5">
         <v>43891</v>
       </c>
@@ -1609,76 +1812,76 @@
         <v>3513.485445484534</v>
       </c>
     </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" s="6">
         <v>43862</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="22">
         <v>982290.08293070516</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="22">
         <v>60356.467839884484</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="22">
         <v>377373.33608776017</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="22">
         <v>2641.9192737332969</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="22">
         <v>360.94864208449303</v>
       </c>
       <c r="H52" s="11">
         <v>3295.8855891945791</v>
       </c>
     </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B53" s="5">
+    <row r="53" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="7">
         <v>43831</v>
       </c>
-      <c r="C53" s="8">
+      <c r="C53" s="12">
         <v>1043387.5755969753</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="12">
         <v>63415.363196738886</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="12">
         <v>366209.15569827688</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="12">
         <v>2947.0959699551013</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="12">
         <v>395.13315068020165</v>
       </c>
-      <c r="H53" s="9">
+      <c r="H53" s="13">
         <v>3350.2491777933287</v>
       </c>
     </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B54" s="6">
+    <row r="54" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B54" s="23">
         <v>43800</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C54" s="24">
         <v>1173191.5786217949</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="24">
         <v>68609.197997948868</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E54" s="24">
         <v>343934.1821253543</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F54" s="24">
         <v>3556.7188397497598</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="24">
         <v>437.18649923155607</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54" s="25">
         <v>3223.6376182650083</v>
       </c>
     </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" s="5">
         <v>43770</v>
       </c>
@@ -1701,30 +1904,30 @@
         <v>3336.395900843946</v>
       </c>
     </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" s="6">
         <v>43739</v>
       </c>
-      <c r="C56" s="10">
+      <c r="C56" s="22">
         <v>945338.77370360855</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="22">
         <v>63671.161119870609</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="22">
         <v>375047.0320737182</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="22">
         <v>2673.6478119505205</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="22">
         <v>386.58236159360717</v>
       </c>
       <c r="H56" s="11">
         <v>3498.3851291839201</v>
       </c>
     </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" s="5">
         <v>43709</v>
       </c>
@@ -1747,30 +1950,30 @@
         <v>3200.6138073388247</v>
       </c>
     </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B58" s="6">
         <v>43678</v>
       </c>
-      <c r="C58" s="10">
+      <c r="C58" s="22">
         <v>1050520.0337119007</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="22">
         <v>65367.203717195654</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E58" s="22">
         <v>372909.13205617561</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F58" s="22">
         <v>3086.7293954021748</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="22">
         <v>405.59422546000542</v>
       </c>
       <c r="H58" s="11">
         <v>3424.940866921922</v>
       </c>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B59" s="5">
         <v>43647</v>
       </c>
@@ -1793,30 +1996,30 @@
         <v>3393.7594407019883</v>
       </c>
     </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" s="6">
         <v>43617</v>
       </c>
-      <c r="C60" s="10">
+      <c r="C60" s="22">
         <v>966173.6327032015</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="22">
         <v>62490.320291681564</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E60" s="22">
         <v>368132.72195526795</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F60" s="22">
         <v>2612.0566979182822</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="22">
         <v>375.90938580503877</v>
       </c>
       <c r="H60" s="11">
         <v>3286.4581348933589</v>
       </c>
     </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B61" s="5">
         <v>43586</v>
       </c>
@@ -1839,30 +2042,30 @@
         <v>3444.1877996345393</v>
       </c>
     </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" s="6">
         <v>43556</v>
       </c>
-      <c r="C62" s="10">
+      <c r="C62" s="22">
         <v>1108164.6591178263</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="22">
         <v>68112.326571472004</v>
       </c>
-      <c r="E62" s="10">
+      <c r="E62" s="22">
         <v>363563.41451113817</v>
       </c>
-      <c r="F62" s="10">
+      <c r="F62" s="22">
         <v>3150.595477131194</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="22">
         <v>411.14442610058808</v>
       </c>
       <c r="H62" s="11">
         <v>3220.4919588932125</v>
       </c>
     </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B63" s="5">
         <v>43525</v>
       </c>
@@ -1885,54 +2088,54 @@
         <v>3453.1584954348541</v>
       </c>
     </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" s="6">
         <v>43497</v>
       </c>
-      <c r="C64" s="10">
+      <c r="C64" s="22">
         <v>969779.09995713015</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="22">
         <v>61936.419364682122</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E64" s="22">
         <v>377791.50373590383</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F64" s="22">
         <v>2436.5072488298365</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="22">
         <v>341.03735100952412</v>
       </c>
       <c r="H64" s="11">
         <v>3140.6996427210524</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B65" s="5">
+    <row r="65" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="7">
         <v>43466</v>
       </c>
-      <c r="C65" s="8">
+      <c r="C65" s="12">
         <v>987707.84477375576</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="12">
         <v>64065.568971051762</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="12">
         <v>361595.02676384157</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="12">
         <v>2716.8343527097754</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="12">
         <v>380.37462653509311</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="13">
         <v>3231.9444302605825</v>
       </c>
     </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B66" s="6">
+    <row r="66" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B66" s="19">
         <v>43435</v>
       </c>
       <c r="C66" s="10">
@@ -1950,12 +2153,12 @@
       <c r="G66" s="10">
         <v>385.9</v>
       </c>
-      <c r="H66" s="11">
+      <c r="H66" s="22">
         <v>2645</v>
       </c>
     </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B67" s="5">
+    <row r="67" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="20">
         <v>43405</v>
       </c>
       <c r="C67" s="8">
@@ -1973,12 +2176,12 @@
       <c r="G67" s="8">
         <v>350.4</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="8">
         <v>2731.2</v>
       </c>
     </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B68" s="6">
+    <row r="68" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B68" s="19">
         <v>43374</v>
       </c>
       <c r="C68" s="10">
@@ -1996,12 +2199,12 @@
       <c r="G68" s="10">
         <v>359.9</v>
       </c>
-      <c r="H68" s="11">
+      <c r="H68" s="22">
         <v>2939.5</v>
       </c>
     </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B69" s="5">
+    <row r="69" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="20">
         <v>43344</v>
       </c>
       <c r="C69" s="8">
@@ -2019,12 +2222,12 @@
       <c r="G69" s="8">
         <v>332.5</v>
       </c>
-      <c r="H69" s="9">
+      <c r="H69" s="8">
         <v>2715.2</v>
       </c>
     </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B70" s="6">
+    <row r="70" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="19">
         <v>43313</v>
       </c>
       <c r="C70" s="10">
@@ -2042,12 +2245,12 @@
       <c r="G70" s="10">
         <v>383.4</v>
       </c>
-      <c r="H70" s="11">
+      <c r="H70" s="22">
         <v>2797.6</v>
       </c>
     </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B71" s="5">
+    <row r="71" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="20">
         <v>43282</v>
       </c>
       <c r="C71" s="8">
@@ -2065,12 +2268,12 @@
       <c r="G71" s="8">
         <v>386.9</v>
       </c>
-      <c r="H71" s="9">
+      <c r="H71" s="8">
         <v>2676.7</v>
       </c>
     </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B72" s="6">
+    <row r="72" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="19">
         <v>43252</v>
       </c>
       <c r="C72" s="10">
@@ -2088,12 +2291,12 @@
       <c r="G72" s="10">
         <v>338.8</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H72" s="22">
         <v>2674.1</v>
       </c>
     </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B73" s="5">
+    <row r="73" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="20">
         <v>43221</v>
       </c>
       <c r="C73" s="8">
@@ -2111,12 +2314,12 @@
       <c r="G73" s="8">
         <v>369.4</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="8">
         <v>2756.5</v>
       </c>
     </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B74" s="6">
+    <row r="74" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="19">
         <v>43191</v>
       </c>
       <c r="C74" s="10">
@@ -2134,12 +2337,12 @@
       <c r="G74" s="10">
         <v>359.7</v>
       </c>
-      <c r="H74" s="11">
+      <c r="H74" s="22">
         <v>2442.5</v>
       </c>
     </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B75" s="5">
+    <row r="75" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="20">
         <v>43160</v>
       </c>
       <c r="C75" s="8">
@@ -2157,12 +2360,12 @@
       <c r="G75" s="8">
         <v>361.6</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="8">
         <v>2892.6</v>
       </c>
     </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B76" s="6">
+    <row r="76" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="19">
         <v>43132</v>
       </c>
       <c r="C76" s="10">
@@ -2180,30 +2383,30 @@
       <c r="G76" s="10">
         <v>313.39999999999998</v>
       </c>
-      <c r="H76" s="11">
+      <c r="H76" s="22">
         <v>2444.9</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B77" s="7">
+    <row r="77" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="20">
         <v>43101</v>
       </c>
-      <c r="C77" s="12">
+      <c r="C77" s="8">
         <v>1009360</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="8">
         <v>65324</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="8">
         <v>341376</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="8">
         <v>2489.1</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G77" s="8">
         <v>354.7</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H77" s="8">
         <v>2582.1</v>
       </c>
     </row>
@@ -2211,35 +2414,35 @@
       <c r="B78" t="s">
         <v>9</v>
       </c>
+      <c r="H78" s="3" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>11</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.35">
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
-      <c r="H80" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="8:9" x14ac:dyDescent="0.35">
-      <c r="H81" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="8:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="9:9" x14ac:dyDescent="0.35">
       <c r="I85" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B4:B5"/>
+  <mergeCells count="2">
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/TDP_ING_DGDC.xlsx
+++ b/TDP_ING_DGDC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290006E9-65DA-425F-9A5F-4524F0FCF1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9B675C-1EB6-4621-95D6-5EFA8DE14F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>Año</t>
   </si>
   <si>
-    <t>Actualización: agosto 2024.</t>
-  </si>
-  <si>
     <t>Automóviles</t>
   </si>
   <si>
@@ -118,6 +115,9 @@
   <si>
     <t>Ene.</t>
   </si>
+  <si>
+    <t>Actualización: Agosto 2024.</t>
+  </si>
 </sst>
 </file>
 
@@ -130,33 +130,33 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -164,7 +164,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -379,12 +379,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -397,47 +391,18 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Montserrat Medium"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
@@ -466,6 +431,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -478,10 +450,38 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Geomanist"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
-        </bottom>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -498,7 +498,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFA616D0-4524-42E3-8E73-34B41D1A2B7F}" name="Tabla1" displayName="Tabla1" ref="B5:I77" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="10" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFA616D0-4524-42E3-8E73-34B41D1A2B7F}" name="Tabla1" displayName="Tabla1" ref="B5:I77" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
   <autoFilter ref="B5:I77" xr:uid="{FFA616D0-4524-42E3-8E73-34B41D1A2B7F}">
     <filterColumn colId="0">
       <filters>
@@ -507,14 +507,14 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D83FB983-AFEC-4348-AC34-D0705AB203FA}" name="Año" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{63E125B3-1B64-4ED0-8992-BF14B5604D0A}" name="Mes" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{54A7EE4F-04D5-45A9-87A6-FEECD094C998}" name="Automóviles" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4F905800-AD6F-4756-AD11-61A1466E3843}" name="Autobuses" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{8986C2FD-064C-497A-8C6B-73EE3BF447F6}" name="Camiones" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{637A13A3-4F4B-4034-8719-AC01AE3259E9}" name="Automóviles " dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{40BE79E0-B249-4F5C-8572-EEF67A8ABCF2}" name="Autobuses " dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{A0BCA930-8E7D-4906-BC22-D7FF397B2BDE}" name="Camiones " dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D83FB983-AFEC-4348-AC34-D0705AB203FA}" name="Año" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{63E125B3-1B64-4ED0-8992-BF14B5604D0A}" name="Mes" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{54A7EE4F-04D5-45A9-87A6-FEECD094C998}" name="Automóviles" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{4F905800-AD6F-4756-AD11-61A1466E3843}" name="Autobuses" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{8986C2FD-064C-497A-8C6B-73EE3BF447F6}" name="Camiones" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{637A13A3-4F4B-4034-8719-AC01AE3259E9}" name="Automóviles " dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{40BE79E0-B249-4F5C-8572-EEF67A8ABCF2}" name="Autobuses " dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{A0BCA930-8E7D-4906-BC22-D7FF397B2BDE}" name="Camiones " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -523,7 +523,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -531,28 +531,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -561,14 +561,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -745,76 +745,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <dimension ref="B2:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.59765625" customWidth="1"/>
-    <col min="2" max="2" width="6.296875" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.59765625" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" customWidth="1"/>
-    <col min="6" max="6" width="10.69921875" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="10.69921875" customWidth="1"/>
-    <col min="9" max="9" width="11.296875" customWidth="1"/>
-    <col min="10" max="10" width="7.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="6.25" customWidth="1"/>
+    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B4" s="10"/>
       <c r="C4" s="13"/>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="25" t="s">
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="27" t="s">
+      <c r="H5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="I5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B6" s="15">
         <v>2023</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" s="11">
         <v>1236552.7575366544</v>
@@ -836,12 +836,12 @@
       </c>
       <c r="L6" s="3"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B7" s="17">
         <v>2023</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="4">
         <v>1103304.1388782433</v>
@@ -862,12 +862,12 @@
         <v>5569.689972148436</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B8" s="19">
         <v>2023</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="6">
         <v>1051935.6934365514</v>
@@ -888,12 +888,12 @@
         <v>5644.7404860964862</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B9" s="17">
         <v>2023</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" s="4">
         <v>1045893.5086845694</v>
@@ -914,12 +914,12 @@
         <v>5427.8402746793272</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B10" s="19">
         <v>2023</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D10" s="6">
         <v>1137447.4188830941</v>
@@ -940,12 +940,12 @@
         <v>5637.7774251682358</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B11" s="17">
         <v>2023</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4">
         <v>1168272.8983938012</v>
@@ -966,12 +966,12 @@
         <v>5479.5605789258234</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B12" s="19">
         <v>2023</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="6">
         <v>1084997.842775401</v>
@@ -992,12 +992,12 @@
         <v>5517.0846230260204</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B13" s="17">
         <v>2023</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4">
         <v>1099819.4898880557</v>
@@ -1018,12 +1018,12 @@
         <v>5652.5546342130137</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B14" s="19">
         <v>2023</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="6">
         <v>1251841.8242146911</v>
@@ -1044,12 +1044,12 @@
         <v>5250.5033932791339</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B15" s="17">
         <v>2023</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="4">
         <v>1123823.0596193729</v>
@@ -1070,12 +1070,12 @@
         <v>5559.7347182841595</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B16" s="19">
         <v>2023</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16" s="6">
         <v>1111487.8610035197</v>
@@ -1096,12 +1096,12 @@
         <v>4735.3543193925807</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="21">
         <v>2023</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" s="8">
         <v>1148216.9829111774</v>
@@ -1122,12 +1122,12 @@
         <v>4840.1508852197358</v>
       </c>
     </row>
-    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B18" s="15">
         <v>2022</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="11">
         <v>1282286.3624803619</v>
@@ -1148,12 +1148,12 @@
         <v>4861.6050600812614</v>
       </c>
     </row>
-    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B19" s="17">
         <v>2022</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D19" s="4">
         <v>1127753.1770958395</v>
@@ -1174,12 +1174,12 @@
         <v>4874.5211284555535</v>
       </c>
     </row>
-    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B20" s="19">
         <v>2022</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" s="6">
         <v>1095710.3118845734</v>
@@ -1200,12 +1200,12 @@
         <v>4895.46921792793</v>
       </c>
     </row>
-    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B21" s="17">
         <v>2022</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" s="4">
         <v>1069975.7108237031</v>
@@ -1226,12 +1226,12 @@
         <v>4638.169712028197</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B22" s="19">
         <v>2022</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="6">
         <v>1164790.896163272</v>
@@ -1252,12 +1252,12 @@
         <v>4855.3665330754493</v>
       </c>
     </row>
-    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B23" s="17">
         <v>2022</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" s="4">
         <v>1151608.8494244525</v>
@@ -1278,12 +1278,12 @@
         <v>4744.4381672001218</v>
       </c>
     </row>
-    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B24" s="19">
         <v>2022</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D24" s="6">
         <v>1065897.405771852</v>
@@ -1304,12 +1304,12 @@
         <v>4733.1920367478588</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B25" s="17">
         <v>2022</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="4">
         <v>1116884.9643482841</v>
@@ -1330,12 +1330,12 @@
         <v>4896.7940436270937</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B26" s="19">
         <v>2022</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D26" s="6">
         <v>1230717.0319438428</v>
@@ -1356,12 +1356,12 @@
         <v>4602.6022770205827</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B27" s="17">
         <v>2022</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27" s="4">
         <v>1077149.2246820559</v>
@@ -1382,12 +1382,12 @@
         <v>4905.3328111841438</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B28" s="19">
         <v>2022</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D28" s="6">
         <v>944692.0421862785</v>
@@ -1408,12 +1408,12 @@
         <v>4254.5580566555373</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B29" s="21">
         <v>2022</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="8">
         <v>1038138.4107616678</v>
@@ -1434,12 +1434,12 @@
         <v>4249.3718802588073</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B30" s="15">
         <v>2021</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" s="11">
         <v>1256184.4388228427</v>
@@ -1460,12 +1460,12 @@
         <v>4297.8418293067252</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B31" s="17">
         <v>2021</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D31" s="4">
         <v>1087994.3917095554</v>
@@ -1486,12 +1486,12 @@
         <v>4231.7763020956418</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B32" s="19">
         <v>2021</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D32" s="6">
         <v>1036454.8882400317</v>
@@ -1512,12 +1512,12 @@
         <v>4306.0240317937314</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B33" s="17">
         <v>2021</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" s="4">
         <v>961973.0029962823</v>
@@ -1538,12 +1538,12 @@
         <v>3975.5891019230307</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B34" s="19">
         <v>2021</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="6">
         <v>997310.15726052551</v>
@@ -1564,12 +1564,12 @@
         <v>4143.8920707024272</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B35" s="17">
         <v>2021</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D35" s="4">
         <v>1067777.4474610589</v>
@@ -1590,12 +1590,12 @@
         <v>4185.9426986052431</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B36" s="19">
         <v>2021</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="6">
         <v>1013217.1049295017</v>
@@ -1616,12 +1616,12 @@
         <v>4185.9287305877633</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B37" s="17">
         <v>2021</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="4">
         <v>1039584.1171214425</v>
@@ -1642,12 +1642,12 @@
         <v>4142.9857768872307</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B38" s="19">
         <v>2021</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="6">
         <v>1033880.2399842916</v>
@@ -1668,12 +1668,12 @@
         <v>3944.5126978995322</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B39" s="17">
         <v>2021</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" s="4">
         <v>991590.48786072864</v>
@@ -1694,12 +1694,12 @@
         <v>4218.8868255480702</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B40" s="19">
         <v>2021</v>
       </c>
       <c r="C40" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D40" s="6">
         <v>872889.51048037899</v>
@@ -1720,12 +1720,12 @@
         <v>3677.6291684124362</v>
       </c>
     </row>
-    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B41" s="21">
         <v>2021</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" s="8">
         <v>905774.87997676479</v>
@@ -1746,12 +1746,12 @@
         <v>3636.1675292773343</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B42" s="15">
         <v>2020</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D42" s="11">
         <v>1038937.4965936036</v>
@@ -1772,12 +1772,12 @@
         <v>3792.9005364509817</v>
       </c>
     </row>
-    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B43" s="17">
         <v>2020</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D43" s="4">
         <v>914125.96174191381</v>
@@ -1798,12 +1798,12 @@
         <v>3665.3589399155608</v>
       </c>
     </row>
-    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B44" s="19">
         <v>2020</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D44" s="6">
         <v>866494.10116764531</v>
@@ -1824,12 +1824,12 @@
         <v>3684.2586749874527</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B45" s="17">
         <v>2020</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D45" s="4">
         <v>822614.64998744137</v>
@@ -1850,12 +1850,12 @@
         <v>3324.7279267489744</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B46" s="19">
         <v>2020</v>
       </c>
       <c r="C46" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D46" s="6">
         <v>827968.22456198384</v>
@@ -1876,12 +1876,12 @@
         <v>3386.7491181883634</v>
       </c>
     </row>
-    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B47" s="17">
         <v>2020</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D47" s="4">
         <v>767419.26110928121</v>
@@ -1902,12 +1902,12 @@
         <v>4404.7609962950182</v>
       </c>
     </row>
-    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B48" s="19">
         <v>2020</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D48" s="6">
         <v>662044.26517451683</v>
@@ -1928,12 +1928,12 @@
         <v>3149.6218494138839</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B49" s="17">
         <v>2020</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D49" s="4">
         <v>543108.90687059367</v>
@@ -1954,12 +1954,12 @@
         <v>2777.1426343665462</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" s="19">
         <v>2020</v>
       </c>
       <c r="C50" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D50" s="6">
         <v>511251.33788468054</v>
@@ -1980,12 +1980,12 @@
         <v>2771.7821885818157</v>
       </c>
     </row>
-    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" s="17">
         <v>2020</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D51" s="4">
         <v>837093.88211144414</v>
@@ -2006,12 +2006,12 @@
         <v>3513.485445484534</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B52" s="19">
         <v>2020</v>
       </c>
       <c r="C52" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D52" s="6">
         <v>982290.08293070516</v>
@@ -2032,12 +2032,12 @@
         <v>3295.8855891945791</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B53" s="21">
         <v>2020</v>
       </c>
       <c r="C53" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D53" s="8">
         <v>1043387.5755969753</v>
@@ -2058,12 +2058,12 @@
         <v>3350.2491777933287</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" s="15">
         <v>2019</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D54" s="11">
         <v>1173191.5786217949</v>
@@ -2084,12 +2084,12 @@
         <v>3223.6376182650083</v>
       </c>
     </row>
-    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" s="17">
         <v>2019</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D55" s="4">
         <v>1024061.4505537122</v>
@@ -2110,12 +2110,12 @@
         <v>3336.395900843946</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B56" s="19">
         <v>2019</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D56" s="6">
         <v>945338.77370360855</v>
@@ -2136,12 +2136,12 @@
         <v>3498.3851291839201</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B57" s="17">
         <v>2019</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D57" s="4">
         <v>966476.16388421005</v>
@@ -2162,12 +2162,12 @@
         <v>3200.6138073388247</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" s="19">
         <v>2019</v>
       </c>
       <c r="C58" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D58" s="6">
         <v>1050520.0337119007</v>
@@ -2188,12 +2188,12 @@
         <v>3424.940866921922</v>
       </c>
     </row>
-    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" s="17">
         <v>2019</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D59" s="4">
         <v>1082607.8079118996</v>
@@ -2214,12 +2214,12 @@
         <v>3393.7594407019883</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B60" s="19">
         <v>2019</v>
       </c>
       <c r="C60" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D60" s="6">
         <v>966173.6327032015</v>
@@ -2240,12 +2240,12 @@
         <v>3286.4581348933589</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B61" s="17">
         <v>2019</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D61" s="4">
         <v>968186.15323600313</v>
@@ -2266,12 +2266,12 @@
         <v>3444.1877996345393</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" s="19">
         <v>2019</v>
       </c>
       <c r="C62" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D62" s="6">
         <v>1108164.6591178263</v>
@@ -2292,12 +2292,12 @@
         <v>3220.4919588932125</v>
       </c>
     </row>
-    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" s="17">
         <v>2019</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D63" s="4">
         <v>999948.62761318858</v>
@@ -2318,12 +2318,12 @@
         <v>3453.1584954348541</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B64" s="19">
         <v>2019</v>
       </c>
       <c r="C64" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D64" s="6">
         <v>969779.09995713015</v>
@@ -2344,12 +2344,12 @@
         <v>3140.6996427210524</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B65" s="21">
         <v>2019</v>
       </c>
       <c r="C65" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D65" s="8">
         <v>987707.84477375576</v>
@@ -2370,12 +2370,12 @@
         <v>3231.9444302605825</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" s="20">
         <v>2018</v>
       </c>
       <c r="C66" s="20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D66" s="6">
         <v>1158802</v>
@@ -2396,12 +2396,12 @@
         <v>2645</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" s="18">
         <v>2018</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D67" s="4">
         <v>1017046</v>
@@ -2422,12 +2422,12 @@
         <v>2731.2</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B68" s="20">
         <v>2018</v>
       </c>
       <c r="C68" s="20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D68" s="6">
         <v>975071</v>
@@ -2448,12 +2448,12 @@
         <v>2939.5</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B69" s="18">
         <v>2018</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D69" s="4">
         <v>983409</v>
@@ -2474,12 +2474,12 @@
         <v>2715.2</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B70" s="20">
         <v>2018</v>
       </c>
       <c r="C70" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D70" s="6">
         <v>1073861</v>
@@ -2500,12 +2500,12 @@
         <v>2797.6</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B71" s="18">
         <v>2018</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D71" s="4">
         <v>1124915</v>
@@ -2526,12 +2526,12 @@
         <v>2676.7</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B72" s="20">
         <v>2018</v>
       </c>
       <c r="C72" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D72" s="6">
         <v>977132</v>
@@ -2552,12 +2552,12 @@
         <v>2674.1</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B73" s="18">
         <v>2018</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D73" s="4">
         <v>990374</v>
@@ -2578,12 +2578,12 @@
         <v>2756.5</v>
       </c>
     </row>
-    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B74" s="20">
         <v>2018</v>
       </c>
       <c r="C74" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D74" s="6">
         <v>1055115</v>
@@ -2604,12 +2604,12 @@
         <v>2442.5</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B75" s="18">
         <v>2018</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D75" s="4">
         <v>1072032</v>
@@ -2630,12 +2630,12 @@
         <v>2892.6</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B76" s="20">
         <v>2018</v>
       </c>
       <c r="C76" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D76" s="6">
         <v>975113</v>
@@ -2656,12 +2656,12 @@
         <v>2444.9</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="B77" s="18">
         <v>2018</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D77" s="4">
         <v>1009360</v>
@@ -2682,19 +2682,19 @@
         <v>2582.1</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" s="14" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="I78" s="2"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>4</v>
       </c>
       <c r="I79" s="2"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>6</v>
       </c>
@@ -2702,7 +2702,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.35">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J85" s="1"/>
     </row>
   </sheetData>

--- a/TDP_ING_DGDC.xlsx
+++ b/TDP_ING_DGDC.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9B675C-1EB6-4621-95D6-5EFA8DE14F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F849B28-15A4-455D-9B6C-5F7004F03C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -135,12 +135,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="major"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Geomanist"/>
       <family val="2"/>
@@ -154,18 +148,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Geomanist"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -333,121 +335,90 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -462,9 +433,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Geomanist"/>
+        <name val="Noto Sans"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -484,6 +456,148 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -498,7 +612,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFA616D0-4524-42E3-8E73-34B41D1A2B7F}" name="Tabla1" displayName="Tabla1" ref="B5:I77" totalsRowShown="0" headerRowDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFA616D0-4524-42E3-8E73-34B41D1A2B7F}" name="Tabla1" displayName="Tabla1" ref="B5:I77" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="10">
   <autoFilter ref="B5:I77" xr:uid="{FFA616D0-4524-42E3-8E73-34B41D1A2B7F}">
     <filterColumn colId="0">
       <filters>
@@ -507,14 +621,14 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D83FB983-AFEC-4348-AC34-D0705AB203FA}" name="Año" dataDxfId="7"/>
-    <tableColumn id="8" xr3:uid="{63E125B3-1B64-4ED0-8992-BF14B5604D0A}" name="Mes" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{54A7EE4F-04D5-45A9-87A6-FEECD094C998}" name="Automóviles" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{4F905800-AD6F-4756-AD11-61A1466E3843}" name="Autobuses" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{8986C2FD-064C-497A-8C6B-73EE3BF447F6}" name="Camiones" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{637A13A3-4F4B-4034-8719-AC01AE3259E9}" name="Automóviles " dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{40BE79E0-B249-4F5C-8572-EEF67A8ABCF2}" name="Autobuses " dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{A0BCA930-8E7D-4906-BC22-D7FF397B2BDE}" name="Camiones " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D83FB983-AFEC-4348-AC34-D0705AB203FA}" name="Año" dataDxfId="9"/>
+    <tableColumn id="8" xr3:uid="{63E125B3-1B64-4ED0-8992-BF14B5604D0A}" name="Mes" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{54A7EE4F-04D5-45A9-87A6-FEECD094C998}" name="Automóviles" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{4F905800-AD6F-4756-AD11-61A1466E3843}" name="Autobuses" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{8986C2FD-064C-497A-8C6B-73EE3BF447F6}" name="Camiones" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{637A13A3-4F4B-4034-8719-AC01AE3259E9}" name="Automóviles " dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{40BE79E0-B249-4F5C-8572-EEF67A8ABCF2}" name="Autobuses " dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{A0BCA930-8E7D-4906-BC22-D7FF397B2BDE}" name="Camiones " dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -745,1964 +859,1965 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
   <dimension ref="B2:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="6.25" customWidth="1"/>
-    <col min="3" max="3" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-    <col min="8" max="8" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.875" customWidth="1"/>
+    <col min="1" max="1" width="5.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="6.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="11.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.875" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="27" t="s">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="23" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="G5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="25" t="s">
+      <c r="H5" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B6" s="11">
         <v>2023</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="13">
         <v>1236552.7575366544</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="13">
         <v>55205.824393340481</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="13">
         <v>427869.65700916701</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="13">
         <v>4779.7767068656685</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="13">
         <v>475.73372654829694</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="14">
         <v>5396.6752817329534</v>
       </c>
-      <c r="L6" s="3"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="17">
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B7" s="16">
         <v>2023</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="18">
         <v>1103304.1388782433</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="18">
         <v>50960.28495491347</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="18">
         <v>460648.98907268693</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="18">
         <v>3924.4782361307925</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="18">
         <v>424.39892752549173</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="19">
         <v>5569.689972148436</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="19">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="20">
         <v>2023</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="22">
         <v>1051935.6934365514</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="22">
         <v>49268.534904079628</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="22">
         <v>457027.51406724972</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="22">
         <v>3798.4232309325503</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="22">
         <v>424.67829688142024</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="23">
         <v>5644.7404860964862</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="17">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B9" s="16">
         <v>2023</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="18">
         <v>1045893.5086845694</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="18">
         <v>48209.931731913355</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="18">
         <v>451402.47486596182</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="18">
         <v>3652.0795853968925</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="18">
         <v>400.68789794079174</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="19">
         <v>5427.8402746793272</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="19">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B10" s="20">
         <v>2023</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="22">
         <v>1137447.4188830941</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="22">
         <v>53536.288238002882</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="22">
         <v>457105.29930989945</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="22">
         <v>4258.9875067963967</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="22">
         <v>463.73396307100188</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="23">
         <v>5637.7774251682358</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="17">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B11" s="16">
         <v>2023</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="18">
         <v>1168272.8983938012</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="18">
         <v>53164.045015154697</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="18">
         <v>444012.97416144359</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="18">
         <v>4405.6575589272024</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="18">
         <v>453.20000461576342</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="19">
         <v>5479.5605789258234</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="19">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B12" s="20">
         <v>2023</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="22">
         <v>1084997.842775401</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="22">
         <v>49129.158733076314</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="22">
         <v>467186.2368995978</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="22">
         <v>3790.5449371028221</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="22">
         <v>401.17721382665849</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="23">
         <v>5517.0846230260204</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="17">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B13" s="16">
         <v>2023</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="18">
         <v>1099819.4898880557</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="18">
         <v>51869.62421405557</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="18">
         <v>467045.76480728813</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="18">
         <v>3977.5062902460168</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="18">
         <v>437.25365283168952</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="19">
         <v>5652.5546342130137</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="19">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B14" s="20">
         <v>2023</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="22">
         <v>1251841.8242146911</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="22">
         <v>55737.883811974374</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="22">
         <v>451952.68913235731</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="22">
         <v>4494.9007064296211</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="22">
         <v>447.62401687755482</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="23">
         <v>5250.5033932791339</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="17">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B15" s="16">
         <v>2023</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="18">
         <v>1123823.0596193729</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="18">
         <v>51066.846824861132</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="18">
         <v>475308.42683672096</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="18">
         <v>3941.2278310647921</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="18">
         <v>410.45688602297236</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="19">
         <v>5559.7347182841595</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="19">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B16" s="20">
         <v>2023</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="22">
         <v>1111487.8610035197</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="22">
         <v>48667.075117150816</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="22">
         <v>457176.91158678796</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="22">
         <v>3384.0807050461572</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="22">
         <v>336.6377555025627</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="23">
         <v>4735.3543193925807</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="21">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="24">
         <v>2023</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="26">
         <v>1148216.9829111774</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="26">
         <v>51242.315396589693</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="26">
         <v>407245.71773065301</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="26">
         <v>3911.282690757916</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="26">
         <v>383.38430415866725</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="27">
         <v>4840.1508852197358</v>
       </c>
     </row>
-    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="15">
+    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="11">
         <v>2022</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="13">
         <v>1282286.3624803619</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="13">
         <v>56884.30784143343</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="13">
         <v>432259.36008302186</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="13">
         <v>4497.9888127111044</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="13">
         <v>435.70744421863009</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="14">
         <v>4861.6050600812614</v>
       </c>
     </row>
-    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="17">
+    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="16">
         <v>2022</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="18">
         <v>1127753.1770958395</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="18">
         <v>53752.006806161029</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="18">
         <v>448929.37668429635</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="18">
         <v>3671.9779785094747</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="18">
         <v>396.11451571060411</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="19">
         <v>4874.5211284555535</v>
       </c>
     </row>
-    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="19">
+    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="20">
         <v>2022</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="6">
+      <c r="D20" s="22">
         <v>1095710.3118845734</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="22">
         <v>50223.375566555238</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="22">
         <v>443891.85902973393</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="22">
         <v>3562.9684051920904</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="22">
         <v>372.2423656681342</v>
       </c>
-      <c r="I20" s="7">
+      <c r="I20" s="23">
         <v>4895.46921792793</v>
       </c>
     </row>
-    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="17">
+    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="16">
         <v>2022</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="18">
         <v>1069975.7108237031</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="18">
         <v>48602.73528009493</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="18">
         <v>434240.2157892746</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="18">
         <v>3393.3679045238819</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="18">
         <v>348.03356587057164</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="19">
         <v>4638.169712028197</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="19">
+    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="20">
         <v>2022</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="22">
         <v>1164790.896163272</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="22">
         <v>52009.576295872146</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="22">
         <v>442050.76941768365</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="22">
         <v>3941.6892069858054</v>
       </c>
-      <c r="H22" s="6">
+      <c r="H22" s="22">
         <v>388.45329836668225</v>
       </c>
-      <c r="I22" s="7">
+      <c r="I22" s="23">
         <v>4855.3665330754493</v>
       </c>
     </row>
-    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="17">
+    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="16">
         <v>2022</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="18">
         <v>1151608.8494244525</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="18">
         <v>52064.085205968513</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="18">
         <v>429060.78141301824</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="18">
         <v>3916.5470912170017</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="18">
         <v>377.27971869823944</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="19">
         <v>4744.4381672001218</v>
       </c>
     </row>
-    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="19">
+    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="20">
         <v>2022</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="6">
+      <c r="D24" s="22">
         <v>1065897.405771852</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="22">
         <v>49657.16391538296</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="22">
         <v>444788.73976985971</v>
       </c>
-      <c r="G24" s="6">
+      <c r="G24" s="22">
         <v>3408.6256872691079</v>
       </c>
-      <c r="H24" s="6">
+      <c r="H24" s="22">
         <v>345.00044090728858</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I24" s="23">
         <v>4733.1920367478588</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="17">
+    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="16">
         <v>2022</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="18">
         <v>1116884.9643482841</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="18">
         <v>51738.026741061236</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="18">
         <v>459195.70303188049</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="18">
         <v>3657.4266830974234</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="18">
         <v>369.95215771346108</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="19">
         <v>4896.7940436270937</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="19">
+    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="20">
         <v>2022</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="6">
+      <c r="D26" s="22">
         <v>1230717.0319438428</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="22">
         <v>51461.854009739422</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="22">
         <v>435586.15598495427</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="22">
         <v>4070.9224336470975</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="22">
         <v>368.07017366713569</v>
       </c>
-      <c r="I26" s="7">
+      <c r="I26" s="23">
         <v>4602.6022770205827</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="17">
+    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="16">
         <v>2022</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="18">
         <v>1077149.2246820559</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="18">
         <v>44977.163195127781</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="18">
         <v>453920.25167055207</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="18">
         <v>3584.9644813012087</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="18">
         <v>327.12933382992412</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="19">
         <v>4905.3328111841438</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="19">
+    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="20">
         <v>2022</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="22">
         <v>944692.0421862785</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="22">
         <v>41718.441758106383</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="22">
         <v>435409.77236684266</v>
       </c>
-      <c r="G28" s="6">
+      <c r="G28" s="22">
         <v>3057.6307816070057</v>
       </c>
-      <c r="H28" s="6">
+      <c r="H28" s="22">
         <v>271.17599772468679</v>
       </c>
-      <c r="I28" s="7">
+      <c r="I28" s="23">
         <v>4254.5580566555373</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="21">
+    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="24">
         <v>2022</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="26">
         <v>1038138.4107616678</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="26">
         <v>45299.007770143056</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="26">
         <v>401512.79824494442</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="26">
         <v>3390.2190567937041</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="26">
         <v>315.44712339076739</v>
       </c>
-      <c r="I29" s="9">
+      <c r="I29" s="27">
         <v>4249.3718802588073</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="15">
+    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="11">
         <v>2021</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="13">
         <v>1256184.4388228427</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="13">
         <v>52366.331085237762</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="13">
         <v>410550.12515018048</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="13">
         <v>4238.9904423727412</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="13">
         <v>374.93197893803466</v>
       </c>
-      <c r="I30" s="12">
+      <c r="I30" s="14">
         <v>4297.8418293067252</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="17">
+    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="16">
         <v>2021</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="18">
         <v>1087994.3917095554</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="18">
         <v>45872.028675929803</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="18">
         <v>422355.14327118761</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="18">
         <v>3361.5724965592244</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="18">
         <v>310.09746464445828</v>
       </c>
-      <c r="I31" s="5">
+      <c r="I31" s="19">
         <v>4231.7763020956418</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19">
+    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="20">
         <v>2021</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="22">
         <v>1036454.8882400317</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="22">
         <v>41706.611499041115</v>
       </c>
-      <c r="F32" s="6">
+      <c r="F32" s="22">
         <v>416263.54922020715</v>
       </c>
-      <c r="G32" s="6">
+      <c r="G32" s="22">
         <v>3234.86890124708</v>
       </c>
-      <c r="H32" s="6">
+      <c r="H32" s="22">
         <v>284.40468988668175</v>
       </c>
-      <c r="I32" s="7">
+      <c r="I32" s="23">
         <v>4306.0240317937314</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="17">
+    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="16">
         <v>2021</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="18">
         <v>961973.0029962823</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="18">
         <v>39222.746982410055</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="18">
         <v>398687.40143430565</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="18">
         <v>2860.5400282106452</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="18">
         <v>253.28754462788083</v>
       </c>
-      <c r="I33" s="5">
+      <c r="I33" s="19">
         <v>3975.5891019230307</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="19">
+    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="20">
         <v>2021</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="22">
         <v>997310.15726052551</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="22">
         <v>41114.182027346505</v>
       </c>
-      <c r="F34" s="6">
+      <c r="F34" s="22">
         <v>401526.23768936115</v>
       </c>
-      <c r="G34" s="6">
+      <c r="G34" s="22">
         <v>3120.4861195560834</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="22">
         <v>278.03604749092699</v>
       </c>
-      <c r="I34" s="7">
+      <c r="I34" s="23">
         <v>4143.8920707024272</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="17">
+    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="16">
         <v>2021</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="18">
         <v>1067777.4474610589</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="18">
         <v>44093.812305626285</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="18">
         <v>407842.5043010689</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="18">
         <v>3427.3672376877653</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="18">
         <v>301.75788994979138</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="19">
         <v>4185.9426986052431</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="19">
+    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="20">
         <v>2021</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="22">
         <v>1013217.1049295017</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="22">
         <v>40805.491935468934</v>
       </c>
-      <c r="F36" s="6">
+      <c r="F36" s="22">
         <v>415091.49118260719</v>
       </c>
-      <c r="G36" s="6">
+      <c r="G36" s="22">
         <v>3044.7864051612028</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="22">
         <v>269.51964572925459</v>
       </c>
-      <c r="I36" s="7">
+      <c r="I36" s="23">
         <v>4185.9287305877633</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="17">
+    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="16">
         <v>2021</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="18">
         <v>1039584.1171214425</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="18">
         <v>39898.252010402561</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="18">
         <v>401903.52066321514</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="18">
         <v>3223.7722619150259</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="18">
         <v>270.33848353705599</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="19">
         <v>4142.9857768872307</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="19">
+    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="20">
         <v>2021</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="22">
         <v>1033880.2399842916</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="22">
         <v>37767.397400746653</v>
       </c>
-      <c r="F38" s="6">
+      <c r="F38" s="22">
         <v>392761.6665084713</v>
       </c>
-      <c r="G38" s="6">
+      <c r="G38" s="22">
         <v>3163.6612032541784</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="22">
         <v>246.82165225203931</v>
       </c>
-      <c r="I38" s="7">
+      <c r="I38" s="23">
         <v>3944.5126978995322</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="17">
+    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="16">
         <v>2021</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="18">
         <v>991590.48786072864</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="18">
         <v>35641.234401616864</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="18">
         <v>407260.20232072781</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="18">
         <v>3112.1115725385098</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="18">
         <v>237.05331402967821</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="19">
         <v>4218.8868255480702</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="19">
+    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="20">
         <v>2021</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="22">
         <v>872889.51048037899</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="22">
         <v>31458.710517757321</v>
       </c>
-      <c r="F40" s="6">
+      <c r="F40" s="22">
         <v>391840.69256860856</v>
       </c>
-      <c r="G40" s="6">
+      <c r="G40" s="22">
         <v>2399.751693345097</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="22">
         <v>185.13795126171618</v>
       </c>
-      <c r="I40" s="7">
+      <c r="I40" s="23">
         <v>3677.6291684124362</v>
       </c>
     </row>
-    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="21">
+    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="24">
         <v>2021</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="26">
         <v>905774.87997676479</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="26">
         <v>39306.393036811329</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="26">
         <v>381229.20439738024</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G41" s="26">
         <v>2679.3259642225776</v>
       </c>
-      <c r="H41" s="8">
+      <c r="H41" s="26">
         <v>224.54814513871693</v>
       </c>
-      <c r="I41" s="9">
+      <c r="I41" s="27">
         <v>3636.1675292773343</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="15">
+    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="11">
         <v>2020</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="13">
         <v>1038937.4965936036</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="13">
         <v>40689.557294487357</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="13">
         <v>382620.68954876851</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="13">
         <v>3239.545016225522</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="13">
         <v>263.38341395824057</v>
       </c>
-      <c r="I42" s="12">
+      <c r="I42" s="14">
         <v>3792.9005364509817</v>
       </c>
     </row>
-    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="17">
+    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="16">
         <v>2020</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="18">
         <v>914125.96174191381</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="18">
         <v>36790.721053864036</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="18">
         <v>390731.17736124562</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="18">
         <v>2676.1817263011048</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="18">
         <v>251.41154452483499</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="19">
         <v>3665.3589399155608</v>
       </c>
     </row>
-    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="19">
+    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="20">
         <v>2020</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="22">
         <v>866494.10116764531</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="22">
         <v>36103.578326969364</v>
       </c>
-      <c r="F44" s="6">
+      <c r="F44" s="22">
         <v>386418.52321766515</v>
       </c>
-      <c r="G44" s="6">
+      <c r="G44" s="22">
         <v>2573.1079135660179</v>
       </c>
-      <c r="H44" s="6">
+      <c r="H44" s="22">
         <v>215.52211084008516</v>
       </c>
-      <c r="I44" s="7">
+      <c r="I44" s="23">
         <v>3684.2586749874527</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="17">
+    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="16">
         <v>2020</v>
       </c>
-      <c r="C45" s="18" t="s">
+      <c r="C45" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="18">
         <v>822614.64998744137</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="18">
         <v>33168.350433210049</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="18">
         <v>361283.2236700434</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="18">
         <v>2357.7984049127913</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="18">
         <v>189.54616014820922</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="19">
         <v>3324.7279267489744</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="19">
+    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="20">
         <v>2020</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="6">
+      <c r="D46" s="22">
         <v>827968.22456198384</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="22">
         <v>31925.793452031299</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="22">
         <v>355821.67314965517</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="22">
         <v>2462.7073448772371</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="22">
         <v>190.76948815296777</v>
       </c>
-      <c r="I46" s="7">
+      <c r="I46" s="23">
         <v>3386.7491181883634</v>
       </c>
     </row>
-    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="17">
+    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="16">
         <v>2020</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="4">
+      <c r="D47" s="18">
         <v>767419.26110928121</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E47" s="18">
         <v>29922.061186655996</v>
       </c>
-      <c r="F47" s="4">
+      <c r="F47" s="18">
         <v>353282.59921772714</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="18">
         <v>2496.0136921994717</v>
       </c>
-      <c r="H47" s="4">
+      <c r="H47" s="18">
         <v>234.87538415493248</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="19">
         <v>4404.7609962950182</v>
       </c>
     </row>
-    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="19">
+    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="20">
         <v>2020</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="6">
+      <c r="D48" s="22">
         <v>662044.26517451683</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="22">
         <v>26225.653241793974</v>
       </c>
-      <c r="F48" s="6">
+      <c r="F48" s="22">
         <v>337765.93832476879</v>
       </c>
-      <c r="G48" s="6">
+      <c r="G48" s="22">
         <v>1853.8125186675022</v>
       </c>
-      <c r="H48" s="6">
+      <c r="H48" s="22">
         <v>147.34487878312396</v>
       </c>
-      <c r="I48" s="7">
+      <c r="I48" s="23">
         <v>3149.6218494138839</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="17">
+    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="16">
         <v>2020</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="18">
         <v>543108.90687059367</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="18">
         <v>21501.491284774631</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="18">
         <v>293269.51379821787</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="18">
         <v>1495.6538271679487</v>
       </c>
-      <c r="H49" s="4">
+      <c r="H49" s="18">
         <v>125.47430492154656</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="19">
         <v>2777.1426343665462</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="19">
+    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="20">
         <v>2020</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="6">
+      <c r="D50" s="22">
         <v>511251.33788468054</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="22">
         <v>23504.793615390903</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="22">
         <v>299058.8295099588</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="22">
         <v>1368.4948273975385</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="22">
         <v>134.58462719338473</v>
       </c>
-      <c r="I50" s="7">
+      <c r="I50" s="23">
         <v>2771.7821885818157</v>
       </c>
     </row>
-    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="17">
+    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="16">
         <v>2020</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C51" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="4">
+      <c r="D51" s="18">
         <v>837093.88211144414</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E51" s="18">
         <v>50727.660875895766</v>
       </c>
-      <c r="F51" s="4">
+      <c r="F51" s="18">
         <v>372978.88460167387</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="18">
         <v>2407.0985874385728</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H51" s="18">
         <v>322.586175874677</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51" s="19">
         <v>3513.485445484534</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="19">
+    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="20">
         <v>2020</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="6">
+      <c r="D52" s="22">
         <v>982290.08293070516</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="22">
         <v>60356.467839884484</v>
       </c>
-      <c r="F52" s="6">
+      <c r="F52" s="22">
         <v>377373.33608776017</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="22">
         <v>2641.9192737332969</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="22">
         <v>360.94864208449303</v>
       </c>
-      <c r="I52" s="7">
+      <c r="I52" s="23">
         <v>3295.8855891945791</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="21">
+    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="24">
         <v>2020</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="26">
         <v>1043387.5755969753</v>
       </c>
-      <c r="E53" s="8">
+      <c r="E53" s="26">
         <v>63415.363196738886</v>
       </c>
-      <c r="F53" s="8">
+      <c r="F53" s="26">
         <v>366209.15569827688</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G53" s="26">
         <v>2947.0959699551013</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="26">
         <v>395.13315068020165</v>
       </c>
-      <c r="I53" s="9">
+      <c r="I53" s="27">
         <v>3350.2491777933287</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="15">
+    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="11">
         <v>2019</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C54" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D54" s="13">
         <v>1173191.5786217949</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="13">
         <v>68609.197997948868</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="13">
         <v>343934.1821253543</v>
       </c>
-      <c r="G54" s="11">
+      <c r="G54" s="13">
         <v>3556.7188397497598</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54" s="13">
         <v>437.18649923155607</v>
       </c>
-      <c r="I54" s="12">
+      <c r="I54" s="14">
         <v>3223.6376182650083</v>
       </c>
     </row>
-    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="17">
+    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="16">
         <v>2019</v>
       </c>
-      <c r="C55" s="18" t="s">
+      <c r="C55" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="18">
         <v>1024061.4505537122</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E55" s="18">
         <v>64967.230029004895</v>
       </c>
-      <c r="F55" s="4">
+      <c r="F55" s="18">
         <v>370966.6896287729</v>
       </c>
-      <c r="G55" s="4">
+      <c r="G55" s="18">
         <v>2872.0190430558155</v>
       </c>
-      <c r="H55" s="4">
+      <c r="H55" s="18">
         <v>394.3847579484223</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I55" s="19">
         <v>3336.395900843946</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="19">
+    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="20">
         <v>2019</v>
       </c>
-      <c r="C56" s="20" t="s">
+      <c r="C56" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="6">
+      <c r="D56" s="22">
         <v>945338.77370360855</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="22">
         <v>63671.161119870609</v>
       </c>
-      <c r="F56" s="6">
+      <c r="F56" s="22">
         <v>375047.0320737182</v>
       </c>
-      <c r="G56" s="6">
+      <c r="G56" s="22">
         <v>2673.6478119505205</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="22">
         <v>386.58236159360717</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="23">
         <v>3498.3851291839201</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="17">
+    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="16">
         <v>2019</v>
       </c>
-      <c r="C57" s="18" t="s">
+      <c r="C57" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="4">
+      <c r="D57" s="18">
         <v>966476.16388421005</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E57" s="18">
         <v>60701.492093790082</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F57" s="18">
         <v>360645.13999762683</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G57" s="18">
         <v>2673.840615137</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H57" s="18">
         <v>361.95555557646844</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="19">
         <v>3200.6138073388247</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="19">
+    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="20">
         <v>2019</v>
       </c>
-      <c r="C58" s="20" t="s">
+      <c r="C58" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="6">
+      <c r="D58" s="22">
         <v>1050520.0337119007</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="22">
         <v>65367.203717195654</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="22">
         <v>372909.13205617561</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="22">
         <v>3086.7293954021748</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="22">
         <v>405.59422546000542</v>
       </c>
-      <c r="I58" s="7">
+      <c r="I58" s="23">
         <v>3424.940866921922</v>
       </c>
     </row>
-    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="17">
+    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="16">
         <v>2019</v>
       </c>
-      <c r="C59" s="18" t="s">
+      <c r="C59" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="4">
+      <c r="D59" s="18">
         <v>1082607.8079118996</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="18">
         <v>67664.346173672326</v>
       </c>
-      <c r="F59" s="4">
+      <c r="F59" s="18">
         <v>369736.99624379841</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G59" s="18">
         <v>3201.8530483967884</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H59" s="18">
         <v>425.36649340812022</v>
       </c>
-      <c r="I59" s="5">
+      <c r="I59" s="19">
         <v>3393.7594407019883</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="19">
+    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="20">
         <v>2019</v>
       </c>
-      <c r="C60" s="20" t="s">
+      <c r="C60" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="6">
+      <c r="D60" s="22">
         <v>966173.6327032015</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="22">
         <v>62490.320291681564</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="22">
         <v>368132.72195526795</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="22">
         <v>2612.0566979182822</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="22">
         <v>375.90938580503877</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="23">
         <v>3286.4581348933589</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="17">
+    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="16">
         <v>2019</v>
       </c>
-      <c r="C61" s="18" t="s">
+      <c r="C61" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="4">
+      <c r="D61" s="18">
         <v>968186.15323600313</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E61" s="18">
         <v>64866.626612244807</v>
       </c>
-      <c r="F61" s="4">
+      <c r="F61" s="18">
         <v>379285.72292931535</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G61" s="18">
         <v>2733.9168955731507</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="18">
         <v>402.6237006723079</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I61" s="19">
         <v>3444.1877996345393</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="19">
+    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="20">
         <v>2019</v>
       </c>
-      <c r="C62" s="20" t="s">
+      <c r="C62" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="6">
+      <c r="D62" s="22">
         <v>1108164.6591178263</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="22">
         <v>68112.326571472004</v>
       </c>
-      <c r="F62" s="6">
+      <c r="F62" s="22">
         <v>363563.41451113817</v>
       </c>
-      <c r="G62" s="6">
+      <c r="G62" s="22">
         <v>3150.595477131194</v>
       </c>
-      <c r="H62" s="6">
+      <c r="H62" s="22">
         <v>411.14442610058808</v>
       </c>
-      <c r="I62" s="7">
+      <c r="I62" s="23">
         <v>3220.4919588932125</v>
       </c>
     </row>
-    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="17">
+    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="16">
         <v>2019</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="4">
+      <c r="D63" s="18">
         <v>999948.62761318858</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E63" s="18">
         <v>63259.577188649579</v>
       </c>
-      <c r="F63" s="4">
+      <c r="F63" s="18">
         <v>376226.12196417316</v>
       </c>
-      <c r="G63" s="4">
+      <c r="G63" s="18">
         <v>2800.7122574905025</v>
       </c>
-      <c r="H63" s="4">
+      <c r="H63" s="18">
         <v>387.4976894736559</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I63" s="19">
         <v>3453.1584954348541</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="19">
+    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="20">
         <v>2019</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C64" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="6">
+      <c r="D64" s="22">
         <v>969779.09995713015</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="22">
         <v>61936.419364682122</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="22">
         <v>377791.50373590383</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="22">
         <v>2436.5072488298365</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64" s="22">
         <v>341.03735100952412</v>
       </c>
-      <c r="I64" s="7">
+      <c r="I64" s="23">
         <v>3140.6996427210524</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="21">
+    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="24">
         <v>2019</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="8">
+      <c r="D65" s="26">
         <v>987707.84477375576</v>
       </c>
-      <c r="E65" s="8">
+      <c r="E65" s="26">
         <v>64065.568971051762</v>
       </c>
-      <c r="F65" s="8">
+      <c r="F65" s="26">
         <v>361595.02676384157</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G65" s="26">
         <v>2716.8343527097754</v>
       </c>
-      <c r="H65" s="8">
+      <c r="H65" s="26">
         <v>380.37462653509311</v>
       </c>
-      <c r="I65" s="9">
+      <c r="I65" s="27">
         <v>3231.9444302605825</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="20">
+    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="21">
         <v>2018</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="6">
+      <c r="D66" s="22">
         <v>1158802</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="22">
         <v>70968</v>
       </c>
-      <c r="F66" s="6">
+      <c r="F66" s="22">
         <v>341779</v>
       </c>
-      <c r="G66" s="6">
+      <c r="G66" s="22">
         <v>3089.8</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H66" s="22">
         <v>385.9</v>
       </c>
-      <c r="I66" s="6">
+      <c r="I66" s="22">
         <v>2645</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="18">
+    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="17">
         <v>2018</v>
       </c>
-      <c r="C67" s="18" t="s">
+      <c r="C67" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="4">
+      <c r="D67" s="18">
         <v>1017046</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E67" s="18">
         <v>65864</v>
       </c>
-      <c r="F67" s="4">
+      <c r="F67" s="18">
         <v>376872</v>
       </c>
-      <c r="G67" s="4">
+      <c r="G67" s="18">
         <v>2445.5</v>
       </c>
-      <c r="H67" s="4">
+      <c r="H67" s="18">
         <v>350.4</v>
       </c>
-      <c r="I67" s="4">
+      <c r="I67" s="18">
         <v>2731.2</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="20">
+    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="21">
         <v>2018</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="6">
+      <c r="D68" s="22">
         <v>975071</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="22">
         <v>62971</v>
       </c>
-      <c r="F68" s="6">
+      <c r="F68" s="22">
         <v>372762</v>
       </c>
-      <c r="G68" s="6">
+      <c r="G68" s="22">
         <v>2457.1</v>
       </c>
-      <c r="H68" s="6">
+      <c r="H68" s="22">
         <v>359.9</v>
       </c>
-      <c r="I68" s="6">
+      <c r="I68" s="22">
         <v>2939.5</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="18">
+    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="17">
         <v>2018</v>
       </c>
-      <c r="C69" s="18" t="s">
+      <c r="C69" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="4">
+      <c r="D69" s="18">
         <v>983409</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E69" s="18">
         <v>62144</v>
       </c>
-      <c r="F69" s="4">
+      <c r="F69" s="18">
         <v>363245</v>
       </c>
-      <c r="G69" s="4">
+      <c r="G69" s="18">
         <v>2250.6</v>
       </c>
-      <c r="H69" s="4">
+      <c r="H69" s="18">
         <v>332.5</v>
       </c>
-      <c r="I69" s="4">
+      <c r="I69" s="18">
         <v>2715.2</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="20">
+    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="21">
         <v>2018</v>
       </c>
-      <c r="C70" s="20" t="s">
+      <c r="C70" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="6">
+      <c r="D70" s="22">
         <v>1073861</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="22">
         <v>65256</v>
       </c>
-      <c r="F70" s="6">
+      <c r="F70" s="22">
         <v>375615</v>
       </c>
-      <c r="G70" s="6">
+      <c r="G70" s="22">
         <v>2684.6</v>
       </c>
-      <c r="H70" s="6">
+      <c r="H70" s="22">
         <v>383.4</v>
       </c>
-      <c r="I70" s="6">
+      <c r="I70" s="22">
         <v>2797.6</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="18">
+    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="17">
         <v>2018</v>
       </c>
-      <c r="C71" s="18" t="s">
+      <c r="C71" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="4">
+      <c r="D71" s="18">
         <v>1124915</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E71" s="18">
         <v>67945</v>
       </c>
-      <c r="F71" s="4">
+      <c r="F71" s="18">
         <v>366043</v>
       </c>
-      <c r="G71" s="4">
+      <c r="G71" s="18">
         <v>2822.7</v>
       </c>
-      <c r="H71" s="4">
+      <c r="H71" s="18">
         <v>386.9</v>
       </c>
-      <c r="I71" s="4">
+      <c r="I71" s="18">
         <v>2676.7</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="20">
+    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="21">
         <v>2018</v>
       </c>
-      <c r="C72" s="20" t="s">
+      <c r="C72" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="6">
+      <c r="D72" s="22">
         <v>977132</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="22">
         <v>66639</v>
       </c>
-      <c r="F72" s="6">
+      <c r="F72" s="22">
         <v>369260</v>
       </c>
-      <c r="G72" s="6">
+      <c r="G72" s="22">
         <v>2288.6999999999998</v>
       </c>
-      <c r="H72" s="6">
+      <c r="H72" s="22">
         <v>338.8</v>
       </c>
-      <c r="I72" s="6">
+      <c r="I72" s="22">
         <v>2674.1</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="18">
+    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="17">
         <v>2018</v>
       </c>
-      <c r="C73" s="18" t="s">
+      <c r="C73" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="4">
+      <c r="D73" s="18">
         <v>990374</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E73" s="18">
         <v>66831</v>
       </c>
-      <c r="F73" s="4">
+      <c r="F73" s="18">
         <v>374598</v>
       </c>
-      <c r="G73" s="4">
+      <c r="G73" s="18">
         <v>2442</v>
       </c>
-      <c r="H73" s="4">
+      <c r="H73" s="18">
         <v>369.4</v>
       </c>
-      <c r="I73" s="4">
+      <c r="I73" s="18">
         <v>2756.5</v>
       </c>
     </row>
-    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="20">
+    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="21">
         <v>2018</v>
       </c>
-      <c r="C74" s="20" t="s">
+      <c r="C74" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="6">
+      <c r="D74" s="22">
         <v>1055115</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="22">
         <v>68662</v>
       </c>
-      <c r="F74" s="6">
+      <c r="F74" s="22">
         <v>370493</v>
       </c>
-      <c r="G74" s="6">
+      <c r="G74" s="22">
         <v>2767.1</v>
       </c>
-      <c r="H74" s="6">
+      <c r="H74" s="22">
         <v>359.7</v>
       </c>
-      <c r="I74" s="6">
+      <c r="I74" s="22">
         <v>2442.5</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="18">
+    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="17">
         <v>2018</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C75" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="4">
+      <c r="D75" s="18">
         <v>1072032</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E75" s="18">
         <v>66227</v>
       </c>
-      <c r="F75" s="4">
+      <c r="F75" s="18">
         <v>365782</v>
       </c>
-      <c r="G75" s="4">
+      <c r="G75" s="18">
         <v>2467.1999999999998</v>
       </c>
-      <c r="H75" s="4">
+      <c r="H75" s="18">
         <v>361.6</v>
       </c>
-      <c r="I75" s="4">
+      <c r="I75" s="18">
         <v>2892.6</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="20">
+    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="21">
         <v>2018</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C76" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="6">
+      <c r="D76" s="22">
         <v>975113</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="22">
         <v>63555</v>
       </c>
-      <c r="F76" s="6">
+      <c r="F76" s="22">
         <v>366257</v>
       </c>
-      <c r="G76" s="6">
+      <c r="G76" s="22">
         <v>2148.4</v>
       </c>
-      <c r="H76" s="6">
+      <c r="H76" s="22">
         <v>313.39999999999998</v>
       </c>
-      <c r="I76" s="6">
+      <c r="I76" s="22">
         <v>2444.9</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="18">
+    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="17">
         <v>2018</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="4">
+      <c r="D77" s="18">
         <v>1009360</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E77" s="18">
         <v>65324</v>
       </c>
-      <c r="F77" s="4">
+      <c r="F77" s="18">
         <v>341376</v>
       </c>
-      <c r="G77" s="4">
+      <c r="G77" s="18">
         <v>2489.1</v>
       </c>
-      <c r="H77" s="4">
+      <c r="H77" s="18">
         <v>354.7</v>
       </c>
-      <c r="I77" s="4">
+      <c r="I77" s="18">
         <v>2582.1</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B78" s="14" t="s">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B78" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
+      <c r="I78" s="29"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B79" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
+      <c r="I79" s="29"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B80" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
     </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="10:10" x14ac:dyDescent="0.45">
       <c r="J85" s="1"/>
     </row>
   </sheetData>
@@ -2710,7 +2825,7 @@
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="G4:I4"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/TDP_ING_DGDC.xlsx
+++ b/TDP_ING_DGDC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F849B28-15A4-455D-9B6C-5F7004F03C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8246B235-A423-43B8-B616-DF6A34443D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_14" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="27">
   <si>
     <t>Autobuses</t>
   </si>
@@ -116,7 +116,10 @@
     <t>Ene.</t>
   </si>
   <si>
-    <t>Actualización: Agosto 2024.</t>
+    <t>Nota: para el año 2024 las cifras son preliminares.</t>
+  </si>
+  <si>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -343,12 +346,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -400,62 +397,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="12">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Noto Sans"/>
-        <family val="2"/>
-        <charset val="1"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -580,6 +533,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -592,10 +552,53 @@
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
           <color indexed="64"/>
-        </bottom>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
   </dxfs>
@@ -612,23 +615,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFA616D0-4524-42E3-8E73-34B41D1A2B7F}" name="Tabla1" displayName="Tabla1" ref="B5:I77" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="B5:I77" xr:uid="{FFA616D0-4524-42E3-8E73-34B41D1A2B7F}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{FFA616D0-4524-42E3-8E73-34B41D1A2B7F}" name="Tabla1" displayName="Tabla1" ref="B5:I89" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10" headerRowBorderDxfId="8" tableBorderDxfId="9">
+  <autoFilter ref="B5:I89" xr:uid="{FFA616D0-4524-42E3-8E73-34B41D1A2B7F}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
+        <filter val="2024"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{D83FB983-AFEC-4348-AC34-D0705AB203FA}" name="Año" dataDxfId="9"/>
-    <tableColumn id="8" xr3:uid="{63E125B3-1B64-4ED0-8992-BF14B5604D0A}" name="Mes" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{54A7EE4F-04D5-45A9-87A6-FEECD094C998}" name="Automóviles" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{4F905800-AD6F-4756-AD11-61A1466E3843}" name="Autobuses" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{8986C2FD-064C-497A-8C6B-73EE3BF447F6}" name="Camiones" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{637A13A3-4F4B-4034-8719-AC01AE3259E9}" name="Automóviles " dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{40BE79E0-B249-4F5C-8572-EEF67A8ABCF2}" name="Autobuses " dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{A0BCA930-8E7D-4906-BC22-D7FF397B2BDE}" name="Camiones " dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D83FB983-AFEC-4348-AC34-D0705AB203FA}" name="Año" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{63E125B3-1B64-4ED0-8992-BF14B5604D0A}" name="Mes" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{54A7EE4F-04D5-45A9-87A6-FEECD094C998}" name="Automóviles" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{4F905800-AD6F-4756-AD11-61A1466E3843}" name="Autobuses" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{8986C2FD-064C-497A-8C6B-73EE3BF447F6}" name="Camiones" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{637A13A3-4F4B-4034-8719-AC01AE3259E9}" name="Automóviles " dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{40BE79E0-B249-4F5C-8572-EEF67A8ABCF2}" name="Autobuses " dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{A0BCA930-8E7D-4906-BC22-D7FF397B2BDE}" name="Camiones " dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -857,9 +860,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:L85"/>
+  <dimension ref="B2:L93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -875,7 +878,8 @@
     <col min="8" max="8" width="11.75" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="11" style="2"/>
+    <col min="11" max="11" width="11" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.45">
@@ -887,1938 +891,2254 @@
     <row r="4" spans="2:12" x14ac:dyDescent="0.45">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6" t="s">
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="10" t="s">
+      <c r="I5" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B6" s="11">
+      <c r="B6" s="18">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="20">
+        <v>1101820.941450902</v>
+      </c>
+      <c r="E6" s="20">
+        <v>49956.514732211072</v>
+      </c>
+      <c r="F6" s="20">
+        <v>445036.70503153733</v>
+      </c>
+      <c r="G6" s="20">
+        <v>4112.1044493659165</v>
+      </c>
+      <c r="H6" s="20">
+        <v>419.05795009355154</v>
+      </c>
+      <c r="I6" s="21">
+        <v>5573.4763769843912</v>
+      </c>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B7" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="16">
+        <v>1073781.6078392426</v>
+      </c>
+      <c r="E7" s="16">
+        <v>64764.052156093327</v>
+      </c>
+      <c r="F7" s="16">
+        <v>446774.59331446089</v>
+      </c>
+      <c r="G7" s="16">
+        <v>3628.4061688568377</v>
+      </c>
+      <c r="H7" s="16">
+        <v>377.48809528103214</v>
+      </c>
+      <c r="I7" s="17">
+        <v>5445.7869023544554</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B8" s="18">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="20">
+        <v>1171097.7858943304</v>
+      </c>
+      <c r="E8" s="20">
+        <v>51025.974418871214</v>
+      </c>
+      <c r="F8" s="20">
+        <v>449321.34655500529</v>
+      </c>
+      <c r="G8" s="20">
+        <v>4330.3959548751536</v>
+      </c>
+      <c r="H8" s="20">
+        <v>437.08577472222811</v>
+      </c>
+      <c r="I8" s="21">
+        <v>5650.9413330040452</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B9" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="16">
+        <v>1120355.5203368973</v>
+      </c>
+      <c r="E9" s="16">
+        <v>51003.466989892069</v>
+      </c>
+      <c r="F9" s="16">
+        <v>475213.59463122732</v>
+      </c>
+      <c r="G9" s="16">
+        <v>4001.1618605123658</v>
+      </c>
+      <c r="H9" s="16">
+        <v>423.27013399820862</v>
+      </c>
+      <c r="I9" s="17">
+        <v>5801.553747182139</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B10" s="18">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="20">
+        <v>1085333.3997952191</v>
+      </c>
+      <c r="E10" s="20">
+        <v>50273.466138576339</v>
+      </c>
+      <c r="F10" s="20">
+        <v>470063.28027231572</v>
+      </c>
+      <c r="G10" s="20">
+        <v>3952.1166318087362</v>
+      </c>
+      <c r="H10" s="20">
+        <v>433.49612290738571</v>
+      </c>
+      <c r="I10" s="21">
+        <v>5942.6840200532533</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B11" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="16">
+        <v>1080171.1901841671</v>
+      </c>
+      <c r="E11" s="16">
+        <v>48019.064658484116</v>
+      </c>
+      <c r="F11" s="16">
+        <v>461839.54289671936</v>
+      </c>
+      <c r="G11" s="16">
+        <v>3779.8032327854048</v>
+      </c>
+      <c r="H11" s="16">
+        <v>396.62226422401324</v>
+      </c>
+      <c r="I11" s="17">
+        <v>5591.7182224228172</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B12" s="18">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="20">
+        <v>1156580.3116794999</v>
+      </c>
+      <c r="E12" s="20">
+        <v>51753.740277822071</v>
+      </c>
+      <c r="F12" s="20">
+        <v>461861.51850391499</v>
+      </c>
+      <c r="G12" s="20">
+        <v>4382.7913819436953</v>
+      </c>
+      <c r="H12" s="20">
+        <v>446.69338030522846</v>
+      </c>
+      <c r="I12" s="21">
+        <v>5815.4742041753452</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B13" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="16">
+        <v>1136982.5287448377</v>
+      </c>
+      <c r="E13" s="16">
+        <v>49843.3916956256</v>
+      </c>
+      <c r="F13" s="16">
+        <v>466972.81801310752</v>
+      </c>
+      <c r="G13" s="16">
+        <v>4318.4698149958158</v>
+      </c>
+      <c r="H13" s="16">
+        <v>432.65723158079646</v>
+      </c>
+      <c r="I13" s="17">
+        <v>5915.7193141262733</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B14" s="18">
+        <v>2024</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="20">
+        <v>1056024.9672161995</v>
+      </c>
+      <c r="E14" s="20">
+        <v>47512.788116187367</v>
+      </c>
+      <c r="F14" s="20">
+        <v>451199.67938621691</v>
+      </c>
+      <c r="G14" s="20">
+        <v>3608.4437238145138</v>
+      </c>
+      <c r="H14" s="20">
+        <v>390.18800341861578</v>
+      </c>
+      <c r="I14" s="21">
+        <v>5484.8649362222141</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B15" s="14">
+        <v>2024</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="16">
+        <v>1025140.5227226195</v>
+      </c>
+      <c r="E15" s="16">
+        <v>46500.322686272084</v>
+      </c>
+      <c r="F15" s="16">
+        <v>466698.41158731567</v>
+      </c>
+      <c r="G15" s="16">
+        <v>3731.5246853679237</v>
+      </c>
+      <c r="H15" s="16">
+        <v>399.66282230022239</v>
+      </c>
+      <c r="I15" s="17">
+        <v>5959.356718325681</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
+      <c r="B16" s="18">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="20">
+        <v>1112005.058867628</v>
+      </c>
+      <c r="E16" s="20">
+        <v>48995.165300639434</v>
+      </c>
+      <c r="F16" s="20">
+        <v>475033.78560972429</v>
+      </c>
+      <c r="G16" s="20">
+        <v>4031.593902957432</v>
+      </c>
+      <c r="H16" s="20">
+        <v>414.53718174514177</v>
+      </c>
+      <c r="I16" s="21">
+        <v>5971.8176555726659</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B17" s="22">
+        <v>2024</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="24">
+        <v>1241145.7646874285</v>
+      </c>
+      <c r="E17" s="24">
+        <v>53048.361955082662</v>
+      </c>
+      <c r="F17" s="24">
+        <v>434312.52084472775</v>
+      </c>
+      <c r="G17" s="24">
+        <v>4982.0989226168167</v>
+      </c>
+      <c r="H17" s="24">
+        <v>489.40008171738532</v>
+      </c>
+      <c r="I17" s="25">
+        <v>5787.8090397758288</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="18">
         <v>2023</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C18" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D18" s="20">
         <v>1236552.7575366544</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E18" s="20">
         <v>55205.824393340481</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F18" s="20">
         <v>427869.65700916701</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G18" s="20">
         <v>4779.7767068656685</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H18" s="20">
         <v>475.73372654829694</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I18" s="21">
         <v>5396.6752817329534</v>
       </c>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B7" s="16">
+    </row>
+    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="14">
         <v>2023</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C19" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D19" s="16">
         <v>1103304.1388782433</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E19" s="16">
         <v>50960.28495491347</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F19" s="16">
         <v>460648.98907268693</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G19" s="16">
         <v>3924.4782361307925</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H19" s="16">
         <v>424.39892752549173</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I19" s="17">
         <v>5569.689972148436</v>
       </c>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B8" s="20">
+    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="18">
         <v>2023</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D20" s="20">
         <v>1051935.6934365514</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E20" s="20">
         <v>49268.534904079628</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F20" s="20">
         <v>457027.51406724972</v>
       </c>
-      <c r="G8" s="22">
+      <c r="G20" s="20">
         <v>3798.4232309325503</v>
       </c>
-      <c r="H8" s="22">
+      <c r="H20" s="20">
         <v>424.67829688142024</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I20" s="21">
         <v>5644.7404860964862</v>
       </c>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B9" s="16">
+    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="14">
         <v>2023</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D21" s="16">
         <v>1045893.5086845694</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E21" s="16">
         <v>48209.931731913355</v>
       </c>
-      <c r="F9" s="18">
+      <c r="F21" s="16">
         <v>451402.47486596182</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G21" s="16">
         <v>3652.0795853968925</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H21" s="16">
         <v>400.68789794079174</v>
       </c>
-      <c r="I9" s="19">
+      <c r="I21" s="17">
         <v>5427.8402746793272</v>
       </c>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B10" s="20">
+    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="18">
         <v>2023</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D22" s="20">
         <v>1137447.4188830941</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E22" s="20">
         <v>53536.288238002882</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F22" s="20">
         <v>457105.29930989945</v>
       </c>
-      <c r="G10" s="22">
+      <c r="G22" s="20">
         <v>4258.9875067963967</v>
       </c>
-      <c r="H10" s="22">
+      <c r="H22" s="20">
         <v>463.73396307100188</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I22" s="21">
         <v>5637.7774251682358</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B11" s="16">
+    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="14">
         <v>2023</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C23" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D23" s="16">
         <v>1168272.8983938012</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E23" s="16">
         <v>53164.045015154697</v>
       </c>
-      <c r="F11" s="18">
+      <c r="F23" s="16">
         <v>444012.97416144359</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G23" s="16">
         <v>4405.6575589272024</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H23" s="16">
         <v>453.20000461576342</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I23" s="17">
         <v>5479.5605789258234</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B12" s="20">
+    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="18">
         <v>2023</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C24" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D24" s="20">
         <v>1084997.842775401</v>
       </c>
-      <c r="E12" s="22">
+      <c r="E24" s="20">
         <v>49129.158733076314</v>
       </c>
-      <c r="F12" s="22">
+      <c r="F24" s="20">
         <v>467186.2368995978</v>
       </c>
-      <c r="G12" s="22">
+      <c r="G24" s="20">
         <v>3790.5449371028221</v>
       </c>
-      <c r="H12" s="22">
+      <c r="H24" s="20">
         <v>401.17721382665849</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I24" s="21">
         <v>5517.0846230260204</v>
       </c>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B13" s="16">
+    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="14">
         <v>2023</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C25" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D25" s="16">
         <v>1099819.4898880557</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E25" s="16">
         <v>51869.62421405557</v>
       </c>
-      <c r="F13" s="18">
+      <c r="F25" s="16">
         <v>467045.76480728813</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G25" s="16">
         <v>3977.5062902460168</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H25" s="16">
         <v>437.25365283168952</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I25" s="17">
         <v>5652.5546342130137</v>
       </c>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B14" s="20">
+    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="18">
         <v>2023</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C26" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D26" s="20">
         <v>1251841.8242146911</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E26" s="20">
         <v>55737.883811974374</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F26" s="20">
         <v>451952.68913235731</v>
       </c>
-      <c r="G14" s="22">
+      <c r="G26" s="20">
         <v>4494.9007064296211</v>
       </c>
-      <c r="H14" s="22">
+      <c r="H26" s="20">
         <v>447.62401687755482</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I26" s="21">
         <v>5250.5033932791339</v>
       </c>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B15" s="16">
+    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="14">
         <v>2023</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C27" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D27" s="16">
         <v>1123823.0596193729</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E27" s="16">
         <v>51066.846824861132</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F27" s="16">
         <v>475308.42683672096</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G27" s="16">
         <v>3941.2278310647921</v>
       </c>
-      <c r="H15" s="18">
+      <c r="H27" s="16">
         <v>410.45688602297236</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I27" s="17">
         <v>5559.7347182841595</v>
       </c>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.45">
-      <c r="B16" s="20">
+    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="18">
         <v>2023</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C28" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D28" s="20">
         <v>1111487.8610035197</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E28" s="20">
         <v>48667.075117150816</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F28" s="20">
         <v>457176.91158678796</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G28" s="20">
         <v>3384.0807050461572</v>
       </c>
-      <c r="H16" s="22">
+      <c r="H28" s="20">
         <v>336.6377555025627</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I28" s="21">
         <v>4735.3543193925807</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B17" s="24">
+    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="22">
         <v>2023</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C29" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D29" s="24">
         <v>1148216.9829111774</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E29" s="24">
         <v>51242.315396589693</v>
       </c>
-      <c r="F17" s="26">
+      <c r="F29" s="24">
         <v>407245.71773065301</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G29" s="24">
         <v>3911.282690757916</v>
       </c>
-      <c r="H17" s="26">
+      <c r="H29" s="24">
         <v>383.38430415866725</v>
       </c>
-      <c r="I17" s="27">
+      <c r="I29" s="25">
         <v>4840.1508852197358</v>
       </c>
     </row>
-    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="11">
+    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="9">
         <v>2022</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D30" s="11">
         <v>1282286.3624803619</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E30" s="11">
         <v>56884.30784143343</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F30" s="11">
         <v>432259.36008302186</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G30" s="11">
         <v>4497.9888127111044</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H30" s="11">
         <v>435.70744421863009</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I30" s="12">
         <v>4861.6050600812614</v>
       </c>
     </row>
-    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="16">
+    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="14">
         <v>2022</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C31" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D31" s="16">
         <v>1127753.1770958395</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E31" s="16">
         <v>53752.006806161029</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F31" s="16">
         <v>448929.37668429635</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G31" s="16">
         <v>3671.9779785094747</v>
       </c>
-      <c r="H19" s="18">
+      <c r="H31" s="16">
         <v>396.11451571060411</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I31" s="17">
         <v>4874.5211284555535</v>
       </c>
     </row>
-    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="20">
+    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="18">
         <v>2022</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C32" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D32" s="20">
         <v>1095710.3118845734</v>
       </c>
-      <c r="E20" s="22">
+      <c r="E32" s="20">
         <v>50223.375566555238</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F32" s="20">
         <v>443891.85902973393</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G32" s="20">
         <v>3562.9684051920904</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H32" s="20">
         <v>372.2423656681342</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I32" s="21">
         <v>4895.46921792793</v>
       </c>
     </row>
-    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="16">
+    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="14">
         <v>2022</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C33" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D33" s="16">
         <v>1069975.7108237031</v>
       </c>
-      <c r="E21" s="18">
+      <c r="E33" s="16">
         <v>48602.73528009493</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F33" s="16">
         <v>434240.2157892746</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G33" s="16">
         <v>3393.3679045238819</v>
       </c>
-      <c r="H21" s="18">
+      <c r="H33" s="16">
         <v>348.03356587057164</v>
       </c>
-      <c r="I21" s="19">
+      <c r="I33" s="17">
         <v>4638.169712028197</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="20">
+    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="18">
         <v>2022</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C34" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D34" s="20">
         <v>1164790.896163272</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E34" s="20">
         <v>52009.576295872146</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F34" s="20">
         <v>442050.76941768365</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G34" s="20">
         <v>3941.6892069858054</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H34" s="20">
         <v>388.45329836668225</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I34" s="21">
         <v>4855.3665330754493</v>
       </c>
     </row>
-    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="16">
+    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="14">
         <v>2022</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C35" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D35" s="16">
         <v>1151608.8494244525</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E35" s="16">
         <v>52064.085205968513</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F35" s="16">
         <v>429060.78141301824</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G35" s="16">
         <v>3916.5470912170017</v>
       </c>
-      <c r="H23" s="18">
+      <c r="H35" s="16">
         <v>377.27971869823944</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I35" s="17">
         <v>4744.4381672001218</v>
       </c>
     </row>
-    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="20">
+    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="18">
         <v>2022</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C36" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="22">
+      <c r="D36" s="20">
         <v>1065897.405771852</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E36" s="20">
         <v>49657.16391538296</v>
       </c>
-      <c r="F24" s="22">
+      <c r="F36" s="20">
         <v>444788.73976985971</v>
       </c>
-      <c r="G24" s="22">
+      <c r="G36" s="20">
         <v>3408.6256872691079</v>
       </c>
-      <c r="H24" s="22">
+      <c r="H36" s="20">
         <v>345.00044090728858</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I36" s="21">
         <v>4733.1920367478588</v>
       </c>
     </row>
-    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="16">
+    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="14">
         <v>2022</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C37" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D37" s="16">
         <v>1116884.9643482841</v>
       </c>
-      <c r="E25" s="18">
+      <c r="E37" s="16">
         <v>51738.026741061236</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F37" s="16">
         <v>459195.70303188049</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G37" s="16">
         <v>3657.4266830974234</v>
       </c>
-      <c r="H25" s="18">
+      <c r="H37" s="16">
         <v>369.95215771346108</v>
       </c>
-      <c r="I25" s="19">
+      <c r="I37" s="17">
         <v>4896.7940436270937</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="20">
+    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="18">
         <v>2022</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C38" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="22">
+      <c r="D38" s="20">
         <v>1230717.0319438428</v>
       </c>
-      <c r="E26" s="22">
+      <c r="E38" s="20">
         <v>51461.854009739422</v>
       </c>
-      <c r="F26" s="22">
+      <c r="F38" s="20">
         <v>435586.15598495427</v>
       </c>
-      <c r="G26" s="22">
+      <c r="G38" s="20">
         <v>4070.9224336470975</v>
       </c>
-      <c r="H26" s="22">
+      <c r="H38" s="20">
         <v>368.07017366713569</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I38" s="21">
         <v>4602.6022770205827</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="16">
+    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="14">
         <v>2022</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C39" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D39" s="16">
         <v>1077149.2246820559</v>
       </c>
-      <c r="E27" s="18">
+      <c r="E39" s="16">
         <v>44977.163195127781</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F39" s="16">
         <v>453920.25167055207</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G39" s="16">
         <v>3584.9644813012087</v>
       </c>
-      <c r="H27" s="18">
+      <c r="H39" s="16">
         <v>327.12933382992412</v>
       </c>
-      <c r="I27" s="19">
+      <c r="I39" s="17">
         <v>4905.3328111841438</v>
       </c>
     </row>
-    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="20">
+    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="18">
         <v>2022</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C40" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D40" s="20">
         <v>944692.0421862785</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E40" s="20">
         <v>41718.441758106383</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F40" s="20">
         <v>435409.77236684266</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G40" s="20">
         <v>3057.6307816070057</v>
       </c>
-      <c r="H28" s="22">
+      <c r="H40" s="20">
         <v>271.17599772468679</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I40" s="21">
         <v>4254.5580566555373</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="24">
+    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="22">
         <v>2022</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C41" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="26">
+      <c r="D41" s="24">
         <v>1038138.4107616678</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E41" s="24">
         <v>45299.007770143056</v>
       </c>
-      <c r="F29" s="26">
+      <c r="F41" s="24">
         <v>401512.79824494442</v>
       </c>
-      <c r="G29" s="26">
+      <c r="G41" s="24">
         <v>3390.2190567937041</v>
       </c>
-      <c r="H29" s="26">
+      <c r="H41" s="24">
         <v>315.44712339076739</v>
       </c>
-      <c r="I29" s="27">
+      <c r="I41" s="25">
         <v>4249.3718802588073</v>
       </c>
     </row>
-    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="11">
+    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="9">
         <v>2021</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C42" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D42" s="11">
         <v>1256184.4388228427</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E42" s="11">
         <v>52366.331085237762</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F42" s="11">
         <v>410550.12515018048</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G42" s="11">
         <v>4238.9904423727412</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H42" s="11">
         <v>374.93197893803466</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I42" s="12">
         <v>4297.8418293067252</v>
       </c>
     </row>
-    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="16">
+    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="14">
         <v>2021</v>
       </c>
-      <c r="C31" s="17" t="s">
+      <c r="C43" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D43" s="16">
         <v>1087994.3917095554</v>
       </c>
-      <c r="E31" s="18">
+      <c r="E43" s="16">
         <v>45872.028675929803</v>
       </c>
-      <c r="F31" s="18">
+      <c r="F43" s="16">
         <v>422355.14327118761</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G43" s="16">
         <v>3361.5724965592244</v>
       </c>
-      <c r="H31" s="18">
+      <c r="H43" s="16">
         <v>310.09746464445828</v>
       </c>
-      <c r="I31" s="19">
+      <c r="I43" s="17">
         <v>4231.7763020956418</v>
       </c>
     </row>
-    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="20">
+    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="18">
         <v>2021</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C44" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D44" s="20">
         <v>1036454.8882400317</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E44" s="20">
         <v>41706.611499041115</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F44" s="20">
         <v>416263.54922020715</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G44" s="20">
         <v>3234.86890124708</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H44" s="20">
         <v>284.40468988668175</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I44" s="21">
         <v>4306.0240317937314</v>
       </c>
     </row>
-    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="16">
+    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="14">
         <v>2021</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C45" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D45" s="16">
         <v>961973.0029962823</v>
       </c>
-      <c r="E33" s="18">
+      <c r="E45" s="16">
         <v>39222.746982410055</v>
       </c>
-      <c r="F33" s="18">
+      <c r="F45" s="16">
         <v>398687.40143430565</v>
       </c>
-      <c r="G33" s="18">
+      <c r="G45" s="16">
         <v>2860.5400282106452</v>
       </c>
-      <c r="H33" s="18">
+      <c r="H45" s="16">
         <v>253.28754462788083</v>
       </c>
-      <c r="I33" s="19">
+      <c r="I45" s="17">
         <v>3975.5891019230307</v>
       </c>
     </row>
-    <row r="34" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="20">
+    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="18">
         <v>2021</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C46" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D46" s="20">
         <v>997310.15726052551</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E46" s="20">
         <v>41114.182027346505</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F46" s="20">
         <v>401526.23768936115</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G46" s="20">
         <v>3120.4861195560834</v>
       </c>
-      <c r="H34" s="22">
+      <c r="H46" s="20">
         <v>278.03604749092699</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I46" s="21">
         <v>4143.8920707024272</v>
       </c>
     </row>
-    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="16">
+    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="14">
         <v>2021</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C47" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D47" s="16">
         <v>1067777.4474610589</v>
       </c>
-      <c r="E35" s="18">
+      <c r="E47" s="16">
         <v>44093.812305626285</v>
       </c>
-      <c r="F35" s="18">
+      <c r="F47" s="16">
         <v>407842.5043010689</v>
       </c>
-      <c r="G35" s="18">
+      <c r="G47" s="16">
         <v>3427.3672376877653</v>
       </c>
-      <c r="H35" s="18">
+      <c r="H47" s="16">
         <v>301.75788994979138</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I47" s="17">
         <v>4185.9426986052431</v>
       </c>
     </row>
-    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="20">
+    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="18">
         <v>2021</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C48" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D48" s="20">
         <v>1013217.1049295017</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E48" s="20">
         <v>40805.491935468934</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F48" s="20">
         <v>415091.49118260719</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G48" s="20">
         <v>3044.7864051612028</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H48" s="20">
         <v>269.51964572925459</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I48" s="21">
         <v>4185.9287305877633</v>
       </c>
     </row>
-    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="16">
+    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="14">
         <v>2021</v>
       </c>
-      <c r="C37" s="17" t="s">
+      <c r="C49" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D49" s="16">
         <v>1039584.1171214425</v>
       </c>
-      <c r="E37" s="18">
+      <c r="E49" s="16">
         <v>39898.252010402561</v>
       </c>
-      <c r="F37" s="18">
+      <c r="F49" s="16">
         <v>401903.52066321514</v>
       </c>
-      <c r="G37" s="18">
+      <c r="G49" s="16">
         <v>3223.7722619150259</v>
       </c>
-      <c r="H37" s="18">
+      <c r="H49" s="16">
         <v>270.33848353705599</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I49" s="17">
         <v>4142.9857768872307</v>
       </c>
     </row>
-    <row r="38" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="20">
+    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="18">
         <v>2021</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C50" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D50" s="20">
         <v>1033880.2399842916</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E50" s="20">
         <v>37767.397400746653</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F50" s="20">
         <v>392761.6665084713</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G50" s="20">
         <v>3163.6612032541784</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H50" s="20">
         <v>246.82165225203931</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I50" s="21">
         <v>3944.5126978995322</v>
       </c>
     </row>
-    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="16">
+    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="14">
         <v>2021</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C51" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D51" s="16">
         <v>991590.48786072864</v>
       </c>
-      <c r="E39" s="18">
+      <c r="E51" s="16">
         <v>35641.234401616864</v>
       </c>
-      <c r="F39" s="18">
+      <c r="F51" s="16">
         <v>407260.20232072781</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G51" s="16">
         <v>3112.1115725385098</v>
       </c>
-      <c r="H39" s="18">
+      <c r="H51" s="16">
         <v>237.05331402967821</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I51" s="17">
         <v>4218.8868255480702</v>
       </c>
     </row>
-    <row r="40" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="20">
+    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="18">
         <v>2021</v>
       </c>
-      <c r="C40" s="21" t="s">
+      <c r="C52" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D52" s="20">
         <v>872889.51048037899</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E52" s="20">
         <v>31458.710517757321</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F52" s="20">
         <v>391840.69256860856</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G52" s="20">
         <v>2399.751693345097</v>
       </c>
-      <c r="H40" s="22">
+      <c r="H52" s="20">
         <v>185.13795126171618</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I52" s="21">
         <v>3677.6291684124362</v>
       </c>
     </row>
-    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="24">
+    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="22">
         <v>2021</v>
       </c>
-      <c r="C41" s="25" t="s">
+      <c r="C53" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D41" s="26">
+      <c r="D53" s="24">
         <v>905774.87997676479</v>
       </c>
-      <c r="E41" s="26">
+      <c r="E53" s="24">
         <v>39306.393036811329</v>
       </c>
-      <c r="F41" s="26">
+      <c r="F53" s="24">
         <v>381229.20439738024</v>
       </c>
-      <c r="G41" s="26">
+      <c r="G53" s="24">
         <v>2679.3259642225776</v>
       </c>
-      <c r="H41" s="26">
+      <c r="H53" s="24">
         <v>224.54814513871693</v>
       </c>
-      <c r="I41" s="27">
+      <c r="I53" s="25">
         <v>3636.1675292773343</v>
       </c>
     </row>
-    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="11">
+    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="9">
         <v>2020</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C54" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D54" s="11">
         <v>1038937.4965936036</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E54" s="11">
         <v>40689.557294487357</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F54" s="11">
         <v>382620.68954876851</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G54" s="11">
         <v>3239.545016225522</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H54" s="11">
         <v>263.38341395824057</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I54" s="12">
         <v>3792.9005364509817</v>
       </c>
     </row>
-    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="16">
+    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="14">
         <v>2020</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C55" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D55" s="16">
         <v>914125.96174191381</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E55" s="16">
         <v>36790.721053864036</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F55" s="16">
         <v>390731.17736124562</v>
       </c>
-      <c r="G43" s="18">
+      <c r="G55" s="16">
         <v>2676.1817263011048</v>
       </c>
-      <c r="H43" s="18">
+      <c r="H55" s="16">
         <v>251.41154452483499</v>
       </c>
-      <c r="I43" s="19">
+      <c r="I55" s="17">
         <v>3665.3589399155608</v>
       </c>
     </row>
-    <row r="44" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="20">
+    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="18">
         <v>2020</v>
       </c>
-      <c r="C44" s="21" t="s">
+      <c r="C56" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D56" s="20">
         <v>866494.10116764531</v>
       </c>
-      <c r="E44" s="22">
+      <c r="E56" s="20">
         <v>36103.578326969364</v>
       </c>
-      <c r="F44" s="22">
+      <c r="F56" s="20">
         <v>386418.52321766515</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G56" s="20">
         <v>2573.1079135660179</v>
       </c>
-      <c r="H44" s="22">
+      <c r="H56" s="20">
         <v>215.52211084008516</v>
       </c>
-      <c r="I44" s="23">
+      <c r="I56" s="21">
         <v>3684.2586749874527</v>
       </c>
     </row>
-    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="16">
+    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="14">
         <v>2020</v>
       </c>
-      <c r="C45" s="17" t="s">
+      <c r="C57" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D57" s="16">
         <v>822614.64998744137</v>
       </c>
-      <c r="E45" s="18">
+      <c r="E57" s="16">
         <v>33168.350433210049</v>
       </c>
-      <c r="F45" s="18">
+      <c r="F57" s="16">
         <v>361283.2236700434</v>
       </c>
-      <c r="G45" s="18">
+      <c r="G57" s="16">
         <v>2357.7984049127913</v>
       </c>
-      <c r="H45" s="18">
+      <c r="H57" s="16">
         <v>189.54616014820922</v>
       </c>
-      <c r="I45" s="19">
+      <c r="I57" s="17">
         <v>3324.7279267489744</v>
       </c>
     </row>
-    <row r="46" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="20">
+    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="18">
         <v>2020</v>
       </c>
-      <c r="C46" s="21" t="s">
+      <c r="C58" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="22">
+      <c r="D58" s="20">
         <v>827968.22456198384</v>
       </c>
-      <c r="E46" s="22">
+      <c r="E58" s="20">
         <v>31925.793452031299</v>
       </c>
-      <c r="F46" s="22">
+      <c r="F58" s="20">
         <v>355821.67314965517</v>
       </c>
-      <c r="G46" s="22">
+      <c r="G58" s="20">
         <v>2462.7073448772371</v>
       </c>
-      <c r="H46" s="22">
+      <c r="H58" s="20">
         <v>190.76948815296777</v>
       </c>
-      <c r="I46" s="23">
+      <c r="I58" s="21">
         <v>3386.7491181883634</v>
       </c>
     </row>
-    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="16">
+    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="14">
         <v>2020</v>
       </c>
-      <c r="C47" s="17" t="s">
+      <c r="C59" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D59" s="16">
         <v>767419.26110928121</v>
       </c>
-      <c r="E47" s="18">
+      <c r="E59" s="16">
         <v>29922.061186655996</v>
       </c>
-      <c r="F47" s="18">
+      <c r="F59" s="16">
         <v>353282.59921772714</v>
       </c>
-      <c r="G47" s="18">
+      <c r="G59" s="16">
         <v>2496.0136921994717</v>
       </c>
-      <c r="H47" s="18">
+      <c r="H59" s="16">
         <v>234.87538415493248</v>
       </c>
-      <c r="I47" s="19">
+      <c r="I59" s="17">
         <v>4404.7609962950182</v>
       </c>
     </row>
-    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="20">
+    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="18">
         <v>2020</v>
       </c>
-      <c r="C48" s="21" t="s">
+      <c r="C60" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D48" s="22">
+      <c r="D60" s="20">
         <v>662044.26517451683</v>
       </c>
-      <c r="E48" s="22">
+      <c r="E60" s="20">
         <v>26225.653241793974</v>
       </c>
-      <c r="F48" s="22">
+      <c r="F60" s="20">
         <v>337765.93832476879</v>
       </c>
-      <c r="G48" s="22">
+      <c r="G60" s="20">
         <v>1853.8125186675022</v>
       </c>
-      <c r="H48" s="22">
+      <c r="H60" s="20">
         <v>147.34487878312396</v>
       </c>
-      <c r="I48" s="23">
+      <c r="I60" s="21">
         <v>3149.6218494138839</v>
       </c>
     </row>
-    <row r="49" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="16">
+    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="14">
         <v>2020</v>
       </c>
-      <c r="C49" s="17" t="s">
+      <c r="C61" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D61" s="16">
         <v>543108.90687059367</v>
       </c>
-      <c r="E49" s="18">
+      <c r="E61" s="16">
         <v>21501.491284774631</v>
       </c>
-      <c r="F49" s="18">
+      <c r="F61" s="16">
         <v>293269.51379821787</v>
       </c>
-      <c r="G49" s="18">
+      <c r="G61" s="16">
         <v>1495.6538271679487</v>
       </c>
-      <c r="H49" s="18">
+      <c r="H61" s="16">
         <v>125.47430492154656</v>
       </c>
-      <c r="I49" s="19">
+      <c r="I61" s="17">
         <v>2777.1426343665462</v>
       </c>
     </row>
-    <row r="50" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="20">
+    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="18">
         <v>2020</v>
       </c>
-      <c r="C50" s="21" t="s">
+      <c r="C62" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="22">
+      <c r="D62" s="20">
         <v>511251.33788468054</v>
       </c>
-      <c r="E50" s="22">
+      <c r="E62" s="20">
         <v>23504.793615390903</v>
       </c>
-      <c r="F50" s="22">
+      <c r="F62" s="20">
         <v>299058.8295099588</v>
       </c>
-      <c r="G50" s="22">
+      <c r="G62" s="20">
         <v>1368.4948273975385</v>
       </c>
-      <c r="H50" s="22">
+      <c r="H62" s="20">
         <v>134.58462719338473</v>
       </c>
-      <c r="I50" s="23">
+      <c r="I62" s="21">
         <v>2771.7821885818157</v>
       </c>
     </row>
-    <row r="51" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="16">
+    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="14">
         <v>2020</v>
       </c>
-      <c r="C51" s="17" t="s">
+      <c r="C63" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D63" s="16">
         <v>837093.88211144414</v>
       </c>
-      <c r="E51" s="18">
+      <c r="E63" s="16">
         <v>50727.660875895766</v>
       </c>
-      <c r="F51" s="18">
+      <c r="F63" s="16">
         <v>372978.88460167387</v>
       </c>
-      <c r="G51" s="18">
+      <c r="G63" s="16">
         <v>2407.0985874385728</v>
       </c>
-      <c r="H51" s="18">
+      <c r="H63" s="16">
         <v>322.586175874677</v>
       </c>
-      <c r="I51" s="19">
+      <c r="I63" s="17">
         <v>3513.485445484534</v>
       </c>
     </row>
-    <row r="52" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="20">
+    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="18">
         <v>2020</v>
       </c>
-      <c r="C52" s="21" t="s">
+      <c r="C64" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D52" s="22">
+      <c r="D64" s="20">
         <v>982290.08293070516</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E64" s="20">
         <v>60356.467839884484</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F64" s="20">
         <v>377373.33608776017</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G64" s="20">
         <v>2641.9192737332969</v>
       </c>
-      <c r="H52" s="22">
+      <c r="H64" s="20">
         <v>360.94864208449303</v>
       </c>
-      <c r="I52" s="23">
+      <c r="I64" s="21">
         <v>3295.8855891945791</v>
       </c>
     </row>
-    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="24">
+    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="22">
         <v>2020</v>
       </c>
-      <c r="C53" s="25" t="s">
+      <c r="C65" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="26">
+      <c r="D65" s="24">
         <v>1043387.5755969753</v>
       </c>
-      <c r="E53" s="26">
+      <c r="E65" s="24">
         <v>63415.363196738886</v>
       </c>
-      <c r="F53" s="26">
+      <c r="F65" s="24">
         <v>366209.15569827688</v>
       </c>
-      <c r="G53" s="26">
+      <c r="G65" s="24">
         <v>2947.0959699551013</v>
       </c>
-      <c r="H53" s="26">
+      <c r="H65" s="24">
         <v>395.13315068020165</v>
       </c>
-      <c r="I53" s="27">
+      <c r="I65" s="25">
         <v>3350.2491777933287</v>
       </c>
     </row>
-    <row r="54" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="11">
+    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="9">
         <v>2019</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C66" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D66" s="11">
         <v>1173191.5786217949</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E66" s="11">
         <v>68609.197997948868</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F66" s="11">
         <v>343934.1821253543</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G66" s="11">
         <v>3556.7188397497598</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H66" s="11">
         <v>437.18649923155607</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I66" s="12">
         <v>3223.6376182650083</v>
       </c>
     </row>
-    <row r="55" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="16">
+    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="14">
         <v>2019</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C67" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D67" s="16">
         <v>1024061.4505537122</v>
       </c>
-      <c r="E55" s="18">
+      <c r="E67" s="16">
         <v>64967.230029004895</v>
       </c>
-      <c r="F55" s="18">
+      <c r="F67" s="16">
         <v>370966.6896287729</v>
       </c>
-      <c r="G55" s="18">
+      <c r="G67" s="16">
         <v>2872.0190430558155</v>
       </c>
-      <c r="H55" s="18">
+      <c r="H67" s="16">
         <v>394.3847579484223</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I67" s="17">
         <v>3336.395900843946</v>
       </c>
     </row>
-    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="20">
+    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="18">
         <v>2019</v>
       </c>
-      <c r="C56" s="21" t="s">
+      <c r="C68" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="22">
+      <c r="D68" s="20">
         <v>945338.77370360855</v>
       </c>
-      <c r="E56" s="22">
+      <c r="E68" s="20">
         <v>63671.161119870609</v>
       </c>
-      <c r="F56" s="22">
+      <c r="F68" s="20">
         <v>375047.0320737182</v>
       </c>
-      <c r="G56" s="22">
+      <c r="G68" s="20">
         <v>2673.6478119505205</v>
       </c>
-      <c r="H56" s="22">
+      <c r="H68" s="20">
         <v>386.58236159360717</v>
       </c>
-      <c r="I56" s="23">
+      <c r="I68" s="21">
         <v>3498.3851291839201</v>
       </c>
     </row>
-    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="16">
+    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="14">
         <v>2019</v>
       </c>
-      <c r="C57" s="17" t="s">
+      <c r="C69" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D57" s="18">
+      <c r="D69" s="16">
         <v>966476.16388421005</v>
       </c>
-      <c r="E57" s="18">
+      <c r="E69" s="16">
         <v>60701.492093790082</v>
       </c>
-      <c r="F57" s="18">
+      <c r="F69" s="16">
         <v>360645.13999762683</v>
       </c>
-      <c r="G57" s="18">
+      <c r="G69" s="16">
         <v>2673.840615137</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H69" s="16">
         <v>361.95555557646844</v>
       </c>
-      <c r="I57" s="19">
+      <c r="I69" s="17">
         <v>3200.6138073388247</v>
       </c>
     </row>
-    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="20">
+    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="18">
         <v>2019</v>
       </c>
-      <c r="C58" s="21" t="s">
+      <c r="C70" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D58" s="22">
+      <c r="D70" s="20">
         <v>1050520.0337119007</v>
       </c>
-      <c r="E58" s="22">
+      <c r="E70" s="20">
         <v>65367.203717195654</v>
       </c>
-      <c r="F58" s="22">
+      <c r="F70" s="20">
         <v>372909.13205617561</v>
       </c>
-      <c r="G58" s="22">
+      <c r="G70" s="20">
         <v>3086.7293954021748</v>
       </c>
-      <c r="H58" s="22">
+      <c r="H70" s="20">
         <v>405.59422546000542</v>
       </c>
-      <c r="I58" s="23">
+      <c r="I70" s="21">
         <v>3424.940866921922</v>
       </c>
     </row>
-    <row r="59" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="16">
+    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="14">
         <v>2019</v>
       </c>
-      <c r="C59" s="17" t="s">
+      <c r="C71" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D59" s="18">
+      <c r="D71" s="16">
         <v>1082607.8079118996</v>
       </c>
-      <c r="E59" s="18">
+      <c r="E71" s="16">
         <v>67664.346173672326</v>
       </c>
-      <c r="F59" s="18">
+      <c r="F71" s="16">
         <v>369736.99624379841</v>
       </c>
-      <c r="G59" s="18">
+      <c r="G71" s="16">
         <v>3201.8530483967884</v>
       </c>
-      <c r="H59" s="18">
+      <c r="H71" s="16">
         <v>425.36649340812022</v>
       </c>
-      <c r="I59" s="19">
+      <c r="I71" s="17">
         <v>3393.7594407019883</v>
       </c>
     </row>
-    <row r="60" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="20">
+    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="18">
         <v>2019</v>
       </c>
-      <c r="C60" s="21" t="s">
+      <c r="C72" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D72" s="20">
         <v>966173.6327032015</v>
       </c>
-      <c r="E60" s="22">
+      <c r="E72" s="20">
         <v>62490.320291681564</v>
       </c>
-      <c r="F60" s="22">
+      <c r="F72" s="20">
         <v>368132.72195526795</v>
       </c>
-      <c r="G60" s="22">
+      <c r="G72" s="20">
         <v>2612.0566979182822</v>
       </c>
-      <c r="H60" s="22">
+      <c r="H72" s="20">
         <v>375.90938580503877</v>
       </c>
-      <c r="I60" s="23">
+      <c r="I72" s="21">
         <v>3286.4581348933589</v>
       </c>
     </row>
-    <row r="61" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="16">
+    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="14">
         <v>2019</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C73" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D61" s="18">
+      <c r="D73" s="16">
         <v>968186.15323600313</v>
       </c>
-      <c r="E61" s="18">
+      <c r="E73" s="16">
         <v>64866.626612244807</v>
       </c>
-      <c r="F61" s="18">
+      <c r="F73" s="16">
         <v>379285.72292931535</v>
       </c>
-      <c r="G61" s="18">
+      <c r="G73" s="16">
         <v>2733.9168955731507</v>
       </c>
-      <c r="H61" s="18">
+      <c r="H73" s="16">
         <v>402.6237006723079</v>
       </c>
-      <c r="I61" s="19">
+      <c r="I73" s="17">
         <v>3444.1877996345393</v>
       </c>
     </row>
-    <row r="62" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="20">
+    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="18">
         <v>2019</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="C74" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D62" s="22">
+      <c r="D74" s="20">
         <v>1108164.6591178263</v>
       </c>
-      <c r="E62" s="22">
+      <c r="E74" s="20">
         <v>68112.326571472004</v>
       </c>
-      <c r="F62" s="22">
+      <c r="F74" s="20">
         <v>363563.41451113817</v>
       </c>
-      <c r="G62" s="22">
+      <c r="G74" s="20">
         <v>3150.595477131194</v>
       </c>
-      <c r="H62" s="22">
+      <c r="H74" s="20">
         <v>411.14442610058808</v>
       </c>
-      <c r="I62" s="23">
+      <c r="I74" s="21">
         <v>3220.4919588932125</v>
       </c>
     </row>
-    <row r="63" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="16">
+    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="14">
         <v>2019</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C75" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D63" s="18">
+      <c r="D75" s="16">
         <v>999948.62761318858</v>
       </c>
-      <c r="E63" s="18">
+      <c r="E75" s="16">
         <v>63259.577188649579</v>
       </c>
-      <c r="F63" s="18">
+      <c r="F75" s="16">
         <v>376226.12196417316</v>
       </c>
-      <c r="G63" s="18">
+      <c r="G75" s="16">
         <v>2800.7122574905025</v>
       </c>
-      <c r="H63" s="18">
+      <c r="H75" s="16">
         <v>387.4976894736559</v>
       </c>
-      <c r="I63" s="19">
+      <c r="I75" s="17">
         <v>3453.1584954348541</v>
       </c>
     </row>
-    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="20">
+    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="18">
         <v>2019</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="C76" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="22">
+      <c r="D76" s="20">
         <v>969779.09995713015</v>
       </c>
-      <c r="E64" s="22">
+      <c r="E76" s="20">
         <v>61936.419364682122</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F76" s="20">
         <v>377791.50373590383</v>
       </c>
-      <c r="G64" s="22">
+      <c r="G76" s="20">
         <v>2436.5072488298365</v>
       </c>
-      <c r="H64" s="22">
+      <c r="H76" s="20">
         <v>341.03735100952412</v>
       </c>
-      <c r="I64" s="23">
+      <c r="I76" s="21">
         <v>3140.6996427210524</v>
       </c>
     </row>
-    <row r="65" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="24">
+    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="22">
         <v>2019</v>
       </c>
-      <c r="C65" s="25" t="s">
+      <c r="C77" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D65" s="26">
+      <c r="D77" s="24">
         <v>987707.84477375576</v>
       </c>
-      <c r="E65" s="26">
+      <c r="E77" s="24">
         <v>64065.568971051762</v>
       </c>
-      <c r="F65" s="26">
+      <c r="F77" s="24">
         <v>361595.02676384157</v>
       </c>
-      <c r="G65" s="26">
+      <c r="G77" s="24">
         <v>2716.8343527097754</v>
       </c>
-      <c r="H65" s="26">
+      <c r="H77" s="24">
         <v>380.37462653509311</v>
       </c>
-      <c r="I65" s="27">
+      <c r="I77" s="25">
         <v>3231.9444302605825</v>
       </c>
     </row>
-    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="21">
+    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="19">
         <v>2018</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C78" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D66" s="22">
+      <c r="D78" s="20">
         <v>1158802</v>
       </c>
-      <c r="E66" s="22">
+      <c r="E78" s="20">
         <v>70968</v>
       </c>
-      <c r="F66" s="22">
+      <c r="F78" s="20">
         <v>341779</v>
       </c>
-      <c r="G66" s="22">
+      <c r="G78" s="20">
         <v>3089.8</v>
       </c>
-      <c r="H66" s="22">
+      <c r="H78" s="20">
         <v>385.9</v>
       </c>
-      <c r="I66" s="22">
+      <c r="I78" s="20">
         <v>2645</v>
       </c>
     </row>
-    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="17">
+    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="15">
         <v>2018</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C79" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="18">
+      <c r="D79" s="16">
         <v>1017046</v>
       </c>
-      <c r="E67" s="18">
+      <c r="E79" s="16">
         <v>65864</v>
       </c>
-      <c r="F67" s="18">
+      <c r="F79" s="16">
         <v>376872</v>
       </c>
-      <c r="G67" s="18">
+      <c r="G79" s="16">
         <v>2445.5</v>
       </c>
-      <c r="H67" s="18">
+      <c r="H79" s="16">
         <v>350.4</v>
       </c>
-      <c r="I67" s="18">
+      <c r="I79" s="16">
         <v>2731.2</v>
       </c>
     </row>
-    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="21">
+    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="19">
         <v>2018</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C80" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D68" s="22">
+      <c r="D80" s="20">
         <v>975071</v>
       </c>
-      <c r="E68" s="22">
+      <c r="E80" s="20">
         <v>62971</v>
       </c>
-      <c r="F68" s="22">
+      <c r="F80" s="20">
         <v>372762</v>
       </c>
-      <c r="G68" s="22">
+      <c r="G80" s="20">
         <v>2457.1</v>
       </c>
-      <c r="H68" s="22">
+      <c r="H80" s="20">
         <v>359.9</v>
       </c>
-      <c r="I68" s="22">
+      <c r="I80" s="20">
         <v>2939.5</v>
       </c>
     </row>
-    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="17">
+    <row r="81" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="15">
         <v>2018</v>
       </c>
-      <c r="C69" s="17" t="s">
+      <c r="C81" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D69" s="18">
+      <c r="D81" s="16">
         <v>983409</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E81" s="16">
         <v>62144</v>
       </c>
-      <c r="F69" s="18">
+      <c r="F81" s="16">
         <v>363245</v>
       </c>
-      <c r="G69" s="18">
+      <c r="G81" s="16">
         <v>2250.6</v>
       </c>
-      <c r="H69" s="18">
+      <c r="H81" s="16">
         <v>332.5</v>
       </c>
-      <c r="I69" s="18">
+      <c r="I81" s="16">
         <v>2715.2</v>
       </c>
     </row>
-    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="21">
+    <row r="82" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="19">
         <v>2018</v>
       </c>
-      <c r="C70" s="21" t="s">
+      <c r="C82" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D70" s="22">
+      <c r="D82" s="20">
         <v>1073861</v>
       </c>
-      <c r="E70" s="22">
+      <c r="E82" s="20">
         <v>65256</v>
       </c>
-      <c r="F70" s="22">
+      <c r="F82" s="20">
         <v>375615</v>
       </c>
-      <c r="G70" s="22">
+      <c r="G82" s="20">
         <v>2684.6</v>
       </c>
-      <c r="H70" s="22">
+      <c r="H82" s="20">
         <v>383.4</v>
       </c>
-      <c r="I70" s="22">
+      <c r="I82" s="20">
         <v>2797.6</v>
       </c>
     </row>
-    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="17">
+    <row r="83" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="15">
         <v>2018</v>
       </c>
-      <c r="C71" s="17" t="s">
+      <c r="C83" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D71" s="18">
+      <c r="D83" s="16">
         <v>1124915</v>
       </c>
-      <c r="E71" s="18">
+      <c r="E83" s="16">
         <v>67945</v>
       </c>
-      <c r="F71" s="18">
+      <c r="F83" s="16">
         <v>366043</v>
       </c>
-      <c r="G71" s="18">
+      <c r="G83" s="16">
         <v>2822.7</v>
       </c>
-      <c r="H71" s="18">
+      <c r="H83" s="16">
         <v>386.9</v>
       </c>
-      <c r="I71" s="18">
+      <c r="I83" s="16">
         <v>2676.7</v>
       </c>
     </row>
-    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="21">
+    <row r="84" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="19">
         <v>2018</v>
       </c>
-      <c r="C72" s="21" t="s">
+      <c r="C84" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D72" s="22">
+      <c r="D84" s="20">
         <v>977132</v>
       </c>
-      <c r="E72" s="22">
+      <c r="E84" s="20">
         <v>66639</v>
       </c>
-      <c r="F72" s="22">
+      <c r="F84" s="20">
         <v>369260</v>
       </c>
-      <c r="G72" s="22">
+      <c r="G84" s="20">
         <v>2288.6999999999998</v>
       </c>
-      <c r="H72" s="22">
+      <c r="H84" s="20">
         <v>338.8</v>
       </c>
-      <c r="I72" s="22">
+      <c r="I84" s="20">
         <v>2674.1</v>
       </c>
     </row>
-    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="17">
+    <row r="85" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="15">
         <v>2018</v>
       </c>
-      <c r="C73" s="17" t="s">
+      <c r="C85" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="18">
+      <c r="D85" s="16">
         <v>990374</v>
       </c>
-      <c r="E73" s="18">
+      <c r="E85" s="16">
         <v>66831</v>
       </c>
-      <c r="F73" s="18">
+      <c r="F85" s="16">
         <v>374598</v>
       </c>
-      <c r="G73" s="18">
+      <c r="G85" s="16">
         <v>2442</v>
       </c>
-      <c r="H73" s="18">
+      <c r="H85" s="16">
         <v>369.4</v>
       </c>
-      <c r="I73" s="18">
+      <c r="I85" s="16">
         <v>2756.5</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="21">
+      <c r="J85" s="1"/>
+    </row>
+    <row r="86" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="19">
         <v>2018</v>
       </c>
-      <c r="C74" s="21" t="s">
+      <c r="C86" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D74" s="22">
+      <c r="D86" s="20">
         <v>1055115</v>
       </c>
-      <c r="E74" s="22">
+      <c r="E86" s="20">
         <v>68662</v>
       </c>
-      <c r="F74" s="22">
+      <c r="F86" s="20">
         <v>370493</v>
       </c>
-      <c r="G74" s="22">
+      <c r="G86" s="20">
         <v>2767.1</v>
       </c>
-      <c r="H74" s="22">
+      <c r="H86" s="20">
         <v>359.7</v>
       </c>
-      <c r="I74" s="22">
+      <c r="I86" s="20">
         <v>2442.5</v>
       </c>
     </row>
-    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="17">
+    <row r="87" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="15">
         <v>2018</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C87" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D75" s="18">
+      <c r="D87" s="16">
         <v>1072032</v>
       </c>
-      <c r="E75" s="18">
+      <c r="E87" s="16">
         <v>66227</v>
       </c>
-      <c r="F75" s="18">
+      <c r="F87" s="16">
         <v>365782</v>
       </c>
-      <c r="G75" s="18">
+      <c r="G87" s="16">
         <v>2467.1999999999998</v>
       </c>
-      <c r="H75" s="18">
+      <c r="H87" s="16">
         <v>361.6</v>
       </c>
-      <c r="I75" s="18">
+      <c r="I87" s="16">
         <v>2892.6</v>
       </c>
     </row>
-    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="21">
+    <row r="88" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="19">
         <v>2018</v>
       </c>
-      <c r="C76" s="21" t="s">
+      <c r="C88" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D76" s="22">
+      <c r="D88" s="20">
         <v>975113</v>
       </c>
-      <c r="E76" s="22">
+      <c r="E88" s="20">
         <v>63555</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F88" s="20">
         <v>366257</v>
       </c>
-      <c r="G76" s="22">
+      <c r="G88" s="20">
         <v>2148.4</v>
       </c>
-      <c r="H76" s="22">
+      <c r="H88" s="20">
         <v>313.39999999999998</v>
       </c>
-      <c r="I76" s="22">
+      <c r="I88" s="20">
         <v>2444.9</v>
       </c>
     </row>
-    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="17">
+    <row r="89" spans="2:10" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="15">
         <v>2018</v>
       </c>
-      <c r="C77" s="17" t="s">
+      <c r="C89" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="18">
+      <c r="D89" s="16">
         <v>1009360</v>
       </c>
-      <c r="E77" s="18">
+      <c r="E89" s="16">
         <v>65324</v>
       </c>
-      <c r="F77" s="18">
+      <c r="F89" s="16">
         <v>341376</v>
       </c>
-      <c r="G77" s="18">
+      <c r="G89" s="16">
         <v>2489.1</v>
       </c>
-      <c r="H77" s="18">
+      <c r="H89" s="16">
         <v>354.7</v>
       </c>
-      <c r="I77" s="18">
+      <c r="I89" s="16">
         <v>2582.1</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B78" s="28" t="s">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B90" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I90" s="27"/>
+    </row>
+    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B91" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="I78" s="29"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B79" s="2" t="s">
+      <c r="I91" s="27"/>
+    </row>
+    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B92" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I79" s="29"/>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B80" s="2" t="s">
+      <c r="I92" s="27"/>
+    </row>
+    <row r="93" spans="2:10" x14ac:dyDescent="0.45">
+      <c r="B93" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="H80" s="1"/>
-    </row>
-    <row r="85" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J85" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="2">
